--- a/results/question_01_score_analysis.xlsx
+++ b/results/question_01_score_analysis.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashvinn\Documents\GitHub\LLM_Interpretability_Research\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5206566E-61CA-4FAA-9BD1-A54AD51D5D42}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3239390-3981-4594-9717-E6FC2CCCA17A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{5E48FF71-2AC4-4518-9E04-3DE549F6596A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{5E48FF71-2AC4-4518-9E04-3DE549F6596A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Attempt_01" sheetId="1" r:id="rId1"/>
-    <sheet name="Attempt_02" sheetId="2" r:id="rId2"/>
+    <sheet name="Reading_01" sheetId="1" r:id="rId1"/>
+    <sheet name="Reading_02" sheetId="2" r:id="rId2"/>
+    <sheet name="Reading_03" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="27">
   <si>
     <t>llama3-70b-8192</t>
   </si>
@@ -120,12 +121,18 @@
   <si>
     <t>V1-Extraction not good</t>
   </si>
+  <si>
+    <t>Rouge Scores taken 3 times and averaged output</t>
+  </si>
+  <si>
+    <t>Rouge Scores taken 5 times and averaged output</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,8 +197,14 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,8 +235,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -246,11 +271,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -262,12 +296,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -301,6 +329,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -328,8 +413,8 @@
       <xdr:rowOff>70484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>962024</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1200149</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
@@ -421,8 +506,8 @@
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
@@ -777,54 +862,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9EFC98-D1E5-43E5-A2E4-A1D13B750D1F}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="10" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="8" customWidth="1"/>
     <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.25" customWidth="1"/>
-    <col min="9" max="9" width="12.375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="1.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.25" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.875" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:17">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="B2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="5" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1">
-      <c r="A3" s="11"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="29"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1">
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -840,522 +933,585 @@
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="9"/>
       <c r="K3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="7" t="s">
+      <c r="Q3" s="23"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>0.72464906592558198</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="12">
         <v>0.62761682408291697</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <v>0.38313274027559702</v>
       </c>
-      <c r="E4" s="16">
-        <v>0</v>
-      </c>
-      <c r="F4" s="16">
-        <v>0</v>
-      </c>
-      <c r="G4" s="17">
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
         <f>SUM(B4:D4)/3</f>
         <v>0.57846621009469867</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7" t="s">
+      <c r="H4" s="21">
+        <v>2</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="14">
+      <c r="K4" s="12">
         <v>0.55344223148576999</v>
       </c>
-      <c r="K4" s="14">
+      <c r="L4" s="12">
         <v>0.514757671491195</v>
       </c>
-      <c r="L4" s="14">
+      <c r="M4" s="12">
         <v>0.30115122972265801</v>
       </c>
-      <c r="M4" s="16">
-        <v>0</v>
-      </c>
-      <c r="N4" s="16">
-        <v>0</v>
-      </c>
-      <c r="O4" s="17">
-        <f>SUM(J4:L4)/3</f>
+      <c r="N4" s="14">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0</v>
+      </c>
+      <c r="P4" s="15">
+        <f>SUM(K4:M4)/3</f>
         <v>0.456450377566541</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="7" t="s">
+      <c r="Q4" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>0.49982578011343398</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>0.435238278516282</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>0.30738522954091801</v>
       </c>
-      <c r="E5" s="16">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0</v>
-      </c>
-      <c r="G5" s="17">
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
         <f t="shared" ref="G5:G12" si="0">SUM(B5:D5)/3</f>
         <v>0.41414976272354465</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7" t="s">
+      <c r="H5" s="25">
+        <v>9</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="14">
+      <c r="K5" s="12">
         <v>0.36036963581856901</v>
       </c>
-      <c r="K5" s="14">
+      <c r="L5" s="12">
         <v>0.27573187971421498</v>
       </c>
-      <c r="L5" s="14">
+      <c r="M5" s="12">
         <v>0.26347305389221498</v>
       </c>
-      <c r="M5" s="16">
-        <v>0</v>
-      </c>
-      <c r="N5" s="16">
-        <v>0</v>
-      </c>
-      <c r="O5" s="17">
-        <f>SUM(J5:L5)/3</f>
+      <c r="N5" s="14">
+        <v>0</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0</v>
+      </c>
+      <c r="P5" s="15">
+        <f>SUM(K5:M5)/3</f>
         <v>0.29985818980833301</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="7" t="s">
+      <c r="Q5" s="26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>0.54521269983342002</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>0.46271629357205901</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <v>0.29395028451632199</v>
       </c>
-      <c r="E6" s="16">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17">
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
         <f t="shared" si="0"/>
         <v>0.43395975930726699</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7" t="s">
+      <c r="H6" s="25">
+        <v>8</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="14">
+      <c r="K6" s="12">
         <v>0.36238976085697899</v>
       </c>
-      <c r="K6" s="14">
+      <c r="L6" s="12">
         <v>0.30778205122284502</v>
       </c>
-      <c r="L6" s="14">
+      <c r="M6" s="12">
         <v>0.25756214435459701</v>
       </c>
-      <c r="M6" s="16">
-        <v>0</v>
-      </c>
-      <c r="N6" s="16">
-        <v>0</v>
-      </c>
-      <c r="O6" s="17">
-        <f t="shared" ref="O6:O12" si="1">SUM(J6:L6)/3</f>
+      <c r="N6" s="14">
+        <v>0</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0</v>
+      </c>
+      <c r="P6" s="15">
+        <f t="shared" ref="P6:P12" si="1">SUM(K6:M6)/3</f>
         <v>0.30924465214480701</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="7" t="s">
+      <c r="Q6" s="26">
         <v>8</v>
       </c>
-      <c r="B7" s="14">
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="12">
         <v>0.60989830995247396</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>0.54562314346339302</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>0.34161670987610299</v>
       </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0</v>
-      </c>
-      <c r="G7" s="17">
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
         <f t="shared" si="0"/>
         <v>0.49904605443065658</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7" t="s">
+      <c r="H7" s="21">
+        <v>6</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="14">
+      <c r="K7" s="12">
         <v>0.44434331003435001</v>
       </c>
-      <c r="K7" s="14">
+      <c r="L7" s="12">
         <v>0.41671048505651798</v>
       </c>
-      <c r="L7" s="14">
+      <c r="M7" s="12">
         <v>0.27364470501976701</v>
       </c>
-      <c r="M7" s="16">
-        <v>0</v>
-      </c>
-      <c r="N7" s="16">
-        <v>0</v>
-      </c>
-      <c r="O7" s="17">
+      <c r="N7" s="14">
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0</v>
+      </c>
+      <c r="P7" s="15">
         <f t="shared" si="1"/>
         <v>0.37823283337021163</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="7" t="s">
+      <c r="Q7" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>0.68420650844722397</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <v>0.56550541656924602</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>0.35484567901234498</v>
       </c>
-      <c r="E8" s="16">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="17">
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
         <f t="shared" si="0"/>
         <v>0.5348525346762717</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7" t="s">
+      <c r="H8" s="21">
+        <v>4</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="14">
+      <c r="K8" s="12">
         <v>0.53074301755562703</v>
       </c>
-      <c r="K8" s="14">
+      <c r="L8" s="12">
         <v>0.35783129400150598</v>
       </c>
-      <c r="L8" s="14">
+      <c r="M8" s="12">
         <v>0.27904320987654302</v>
       </c>
-      <c r="M8" s="16">
-        <v>0</v>
-      </c>
-      <c r="N8" s="16">
-        <v>0</v>
-      </c>
-      <c r="O8" s="17">
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0</v>
+      </c>
+      <c r="P8" s="15">
         <f t="shared" si="1"/>
         <v>0.38920584047789197</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="7" t="s">
+      <c r="Q8" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="12">
         <v>0.74671364674347596</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>0.54378525220363005</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>0.354564127059947</v>
       </c>
-      <c r="E9" s="16">
-        <v>0</v>
-      </c>
-      <c r="F9" s="16">
-        <v>0</v>
-      </c>
-      <c r="G9" s="17">
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
         <f t="shared" si="0"/>
         <v>0.548354342002351</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7" t="s">
+      <c r="H9" s="27">
+        <v>3</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="14">
+      <c r="K9" s="12">
         <v>0.62230958748806997</v>
       </c>
-      <c r="K9" s="14">
+      <c r="L9" s="12">
         <v>0.412433773585139</v>
       </c>
-      <c r="L9" s="14">
+      <c r="M9" s="12">
         <v>0.29028049783722099</v>
       </c>
-      <c r="M9" s="16">
-        <v>0</v>
-      </c>
-      <c r="N9" s="16">
-        <v>0</v>
-      </c>
-      <c r="O9" s="17">
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
         <f t="shared" si="1"/>
         <v>0.44167461963680993</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="7" t="s">
+      <c r="Q9" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <v>0.562451477827699</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>0.43019750239054999</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>0.39773357460765502</v>
       </c>
-      <c r="E10" s="16">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-      <c r="G10" s="17">
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
         <f t="shared" si="0"/>
         <v>0.46346085160863471</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7" t="s">
+      <c r="H10" s="21">
         <v>7</v>
       </c>
-      <c r="J10" s="14">
+      <c r="I10" s="21"/>
+      <c r="J10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="12">
         <v>0.42207427956232701</v>
       </c>
-      <c r="K10" s="14">
+      <c r="L10" s="12">
         <v>0.32910499680730398</v>
       </c>
-      <c r="L10" s="14">
+      <c r="M10" s="12">
         <v>0.33907803775515599</v>
       </c>
-      <c r="M10" s="16">
-        <v>0</v>
-      </c>
-      <c r="N10" s="16">
-        <v>0</v>
-      </c>
-      <c r="O10" s="17">
+      <c r="N10" s="14">
+        <v>0</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0</v>
+      </c>
+      <c r="P10" s="15">
         <f t="shared" si="1"/>
         <v>0.36341910470826227</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="7" t="s">
+      <c r="Q10" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <v>0.68273115081357105</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>0.52807935012796703</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>0.36431921423268798</v>
       </c>
-      <c r="E11" s="16">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-      <c r="G11" s="17">
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
         <f t="shared" si="0"/>
         <v>0.52504323839140865</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7" t="s">
+      <c r="H11" s="21">
+        <v>5</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="14">
+      <c r="K11" s="12">
         <v>0.56385667281505203</v>
       </c>
-      <c r="K11" s="14">
+      <c r="L11" s="12">
         <v>0.34243817541662802</v>
       </c>
-      <c r="L11" s="14">
+      <c r="M11" s="12">
         <v>0.29144999634247798</v>
       </c>
-      <c r="M11" s="16">
-        <v>0</v>
-      </c>
-      <c r="N11" s="16">
-        <v>0</v>
-      </c>
-      <c r="O11" s="17">
+      <c r="N11" s="14">
+        <v>0</v>
+      </c>
+      <c r="O11" s="14">
+        <v>0</v>
+      </c>
+      <c r="P11" s="15">
         <f t="shared" si="1"/>
         <v>0.39924828152471936</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="7" t="s">
+      <c r="Q11" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="12">
         <v>0.67405256072727804</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>0.58713510560976601</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>0.48380330142378503</v>
       </c>
-      <c r="E12" s="16">
-        <v>0</v>
-      </c>
-      <c r="F12" s="16">
-        <v>0</v>
-      </c>
-      <c r="G12" s="17">
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
         <f t="shared" si="0"/>
         <v>0.58166365592027636</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7" t="s">
+      <c r="H12" s="27">
+        <v>1</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="14">
+      <c r="K12" s="12">
         <v>0.56667539980744397</v>
       </c>
-      <c r="K12" s="14">
+      <c r="L12" s="12">
         <v>0.50320637501880705</v>
       </c>
-      <c r="L12" s="14">
+      <c r="M12" s="12">
         <v>0.38356826991367299</v>
       </c>
-      <c r="M12" s="16">
-        <v>0</v>
-      </c>
-      <c r="N12" s="16">
-        <v>0</v>
-      </c>
-      <c r="O12" s="17">
+      <c r="N12" s="14">
+        <v>0</v>
+      </c>
+      <c r="O12" s="14">
+        <v>0</v>
+      </c>
+      <c r="P12" s="15">
         <f t="shared" si="1"/>
         <v>0.4844833482466413</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="B13" s="9" t="str">
+      <c r="Q12" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="B13" s="7" t="str">
         <f>INDEX($A4:$A12, MATCH(MAX(B4:B12), B4:B12, 0))</f>
         <v>v2-html</v>
       </c>
-      <c r="C13" s="9" t="str">
+      <c r="C13" s="7" t="str">
         <f t="shared" ref="C13:D13" si="2">INDEX($A4:$A12, MATCH(MAX(C4:C12), C4:C12, 0))</f>
         <v>v0-unstruct</v>
       </c>
-      <c r="D13" s="9" t="str">
+      <c r="D13" s="7" t="str">
         <f t="shared" si="2"/>
         <v>v2-toml</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="18" t="str">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="16" t="str">
         <f>INDEX($A4:$A12, MATCH(MAX(G4:G12), G4:G12, 0))</f>
         <v>v2-toml</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="9" t="str">
-        <f>INDEX($I4:$I12, MATCH(MAX(J4:J12), J4:J12, 0))</f>
+      <c r="I13" s="4"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="7" t="str">
+        <f>INDEX($J4:$J12, MATCH(MAX(K4:K12), K4:K12, 0))</f>
         <v>v2-html</v>
       </c>
-      <c r="K13" s="9" t="str">
-        <f>INDEX($I4:$I12, MATCH(MAX(K4:K12), K4:K12, 0))</f>
+      <c r="L13" s="7" t="str">
+        <f>INDEX($J4:$J12, MATCH(MAX(L4:L12), L4:L12, 0))</f>
         <v>v0-unstruct</v>
       </c>
-      <c r="L13" s="9" t="str">
-        <f>INDEX($I4:$I12, MATCH(MAX(L4:L12), L4:L12, 0))</f>
+      <c r="M13" s="7" t="str">
+        <f>INDEX($J4:$J12, MATCH(MAX(M4:M12), M4:M12, 0))</f>
         <v>v2-toml</v>
       </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="18" t="str">
-        <f>INDEX($A4:$A12, MATCH(MAX(O4:O12), O4:O12, 0))</f>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="16" t="str">
+        <f>INDEX($A4:$A12, MATCH(MAX(P4:P12), P4:P12, 0))</f>
         <v>v2-toml</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13" t="s">
+    <row r="17" spans="1:17" s="1" customFormat="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="B18" s="19" t="s">
+      <c r="J17" s="10"/>
+      <c r="Q17" s="23"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="B18" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="19" t="s">
+    <row r="19" spans="1:17">
+      <c r="B19" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="B20" s="21" t="s">
+    <row r="20" spans="1:17">
+      <c r="B20" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="B21" s="13" t="s">
+    <row r="21" spans="1:17">
+      <c r="B21" s="11" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="22" spans="1:17">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:O12">
     <sortCondition ref="A4"/>
   </sortState>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="K2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:D12">
     <cfRule type="colorScale" priority="2">
@@ -1369,7 +1525,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:L12">
+  <conditionalFormatting sqref="K4:M12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1389,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF4AF6-0912-4220-B4C3-BF232FD814B9}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1404,41 +1560,54 @@
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:18" ht="15">
+      <c r="A1" s="8"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="11"/>
+      <c r="R1" s="22"/>
+    </row>
+    <row r="2" spans="1:18" ht="15">
+      <c r="A2" s="8"/>
+      <c r="B2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="5" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" ht="15">
-      <c r="A2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:15" ht="15">
-      <c r="A3" s="11"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="22"/>
+    </row>
+    <row r="3" spans="1:18" ht="15">
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1454,504 +1623,570 @@
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="9"/>
       <c r="K3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:18" ht="15">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>0.72791390883912999</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="12">
         <v>0.60253356657568702</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <v>0.32055959022251101</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <v>0.68708153666101501</v>
       </c>
-      <c r="F4" s="16">
-        <v>0</v>
-      </c>
-      <c r="G4" s="17">
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
         <f>SUM(B4:E4)/3</f>
         <v>0.77936286743278094</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7" t="s">
+      <c r="H4" s="21">
+        <v>6</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="14">
+      <c r="K4" s="12">
         <v>0.60671315518131597</v>
       </c>
-      <c r="K4" s="14">
+      <c r="L4" s="12">
         <v>0.45125633676548998</v>
       </c>
-      <c r="L4" s="14">
+      <c r="M4" s="12">
         <v>0.259260268891087</v>
       </c>
-      <c r="M4" s="14">
+      <c r="N4" s="12">
         <v>0.49117060710836902</v>
       </c>
-      <c r="N4" s="16">
-        <v>0</v>
-      </c>
-      <c r="O4" s="17">
-        <f>SUM(J4:M4)/3</f>
+      <c r="O4" s="14">
+        <v>0</v>
+      </c>
+      <c r="P4" s="15">
+        <f>SUM(K4:N4)/3</f>
         <v>0.60280012264875393</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="15">
-      <c r="A5" s="7" t="s">
+      <c r="Q4" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>0.72726746802826403</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>0.55395784463222897</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>0.34973145080419599</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
         <v>0.73702295670598905</v>
       </c>
-      <c r="F5" s="16">
-        <v>0</v>
-      </c>
-      <c r="G5" s="17">
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
         <f t="shared" ref="G5:G11" si="0">SUM(B5:E5)/3</f>
         <v>0.78932657339022605</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7" t="s">
+      <c r="H5" s="21">
+        <v>3</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="14">
+      <c r="K5" s="12">
         <v>0.638822263026947</v>
       </c>
-      <c r="K5" s="14">
+      <c r="L5" s="12">
         <v>0.45266754755522498</v>
       </c>
-      <c r="L5" s="14">
+      <c r="M5" s="12">
         <v>0.280653138346735</v>
       </c>
-      <c r="M5" s="14">
+      <c r="N5" s="12">
         <v>0.62041916499064298</v>
       </c>
-      <c r="N5" s="16">
-        <v>0</v>
-      </c>
-      <c r="O5" s="17">
-        <f t="shared" ref="O5:O11" si="1">SUM(J5:M5)/3</f>
+      <c r="O5" s="14">
+        <v>0</v>
+      </c>
+      <c r="P5" s="15">
+        <f t="shared" ref="P5:P11" si="1">SUM(K5:N5)/3</f>
         <v>0.66418737130651662</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="15">
-      <c r="A6" s="7" t="s">
+      <c r="Q5" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>0.62428778970486998</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>0.56484966250374602</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <v>0.41646416528394797</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="12">
         <v>0.65863661052273104</v>
       </c>
-      <c r="F6" s="16">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17">
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
         <f t="shared" si="0"/>
         <v>0.75474607600509847</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7" t="s">
+      <c r="H6" s="31">
+        <v>7</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="14">
+      <c r="K6" s="12">
         <v>0.46072637043342102</v>
       </c>
-      <c r="K6" s="14">
+      <c r="L6" s="12">
         <v>0.35220871930234499</v>
       </c>
-      <c r="L6" s="14">
+      <c r="M6" s="12">
         <v>0.34732735840266699</v>
       </c>
-      <c r="M6" s="14">
+      <c r="N6" s="12">
         <v>0.46537121241747498</v>
       </c>
-      <c r="N6" s="16">
-        <v>0</v>
-      </c>
-      <c r="O6" s="17">
+      <c r="O6" s="14">
+        <v>0</v>
+      </c>
+      <c r="P6" s="15">
         <f t="shared" si="1"/>
         <v>0.54187788685196925</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="15">
-      <c r="A7" s="7" t="s">
+      <c r="Q6" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15">
+      <c r="A7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <v>0.77068830912892194</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>0.57707537346985904</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>0.33261983559303898</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <v>0.72476277930823396</v>
       </c>
-      <c r="F7" s="16">
-        <v>0</v>
-      </c>
-      <c r="G7" s="17">
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
         <f t="shared" si="0"/>
         <v>0.80171543250001809</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7" t="s">
+      <c r="H7" s="27">
+        <v>1</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="14">
+      <c r="K7" s="12">
         <v>0.67501680764941796</v>
       </c>
-      <c r="K7" s="14">
+      <c r="L7" s="12">
         <v>0.50400579581541405</v>
       </c>
-      <c r="L7" s="14">
+      <c r="M7" s="12">
         <v>0.25305485372208902</v>
       </c>
-      <c r="M7" s="14">
+      <c r="N7" s="12">
         <v>0.54725028058361402</v>
       </c>
-      <c r="N7" s="16">
-        <v>0</v>
-      </c>
-      <c r="O7" s="17">
+      <c r="O7" s="14">
+        <v>0</v>
+      </c>
+      <c r="P7" s="15">
         <f t="shared" si="1"/>
         <v>0.65977591259017843</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="15">
-      <c r="A8" s="7" t="s">
+      <c r="Q7" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>0.73642280546046202</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <v>0.51518245662705697</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>0.41469292208145703</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
         <v>0.72292026664241404</v>
       </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="17">
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
         <f t="shared" si="0"/>
         <v>0.79640615027046335</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7" t="s">
+      <c r="H8" s="27">
+        <v>2</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="14">
+      <c r="K8" s="12">
         <v>0.61389278734539099</v>
       </c>
-      <c r="K8" s="14">
+      <c r="L8" s="12">
         <v>0.40567059168040898</v>
       </c>
-      <c r="L8" s="14">
+      <c r="M8" s="12">
         <v>0.33353475964940899</v>
       </c>
-      <c r="M8" s="14">
+      <c r="N8" s="12">
         <v>0.54386172756811102</v>
       </c>
-      <c r="N8" s="16">
-        <v>0</v>
-      </c>
-      <c r="O8" s="17">
+      <c r="O8" s="14">
+        <v>0</v>
+      </c>
+      <c r="P8" s="15">
         <f t="shared" si="1"/>
         <v>0.63231995541443997</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="15">
-      <c r="A9" s="7" t="s">
+      <c r="Q8" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="12">
         <v>0.61681258475579304</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>0.63227715817879704</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>0.380300370188905</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>0.72040200434364898</v>
       </c>
-      <c r="F9" s="16">
-        <v>0</v>
-      </c>
-      <c r="G9" s="17">
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
         <f t="shared" si="0"/>
         <v>0.78326403915571463</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7" t="s">
+      <c r="H9" s="21">
+        <v>5</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="14">
+      <c r="K9" s="12">
         <v>0.47027929041180899</v>
       </c>
-      <c r="K9" s="14">
+      <c r="L9" s="12">
         <v>0.47782541684181001</v>
       </c>
-      <c r="L9" s="14">
+      <c r="M9" s="12">
         <v>0.29178847514834699</v>
       </c>
-      <c r="M9" s="14">
+      <c r="N9" s="12">
         <v>0.56930702625353702</v>
       </c>
-      <c r="N9" s="16">
-        <v>0</v>
-      </c>
-      <c r="O9" s="17">
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
         <f t="shared" si="1"/>
         <v>0.60306673621850104</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="15">
-      <c r="A10" s="7" t="s">
+      <c r="Q9" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <v>0.69033316222408603</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>0.52663667502849398</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>0.33815178110480099</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <v>0.66278526902184398</v>
       </c>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-      <c r="G10" s="17">
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
         <f t="shared" si="0"/>
         <v>0.73930229579307494</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7" t="s">
+      <c r="H10" s="31">
+        <v>8</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="14">
+      <c r="K10" s="12">
         <v>0.54059290170617502</v>
       </c>
-      <c r="K10" s="14">
+      <c r="L10" s="12">
         <v>0.40178802935597402</v>
       </c>
-      <c r="L10" s="14">
+      <c r="M10" s="12">
         <v>0.263502552630069</v>
       </c>
-      <c r="M10" s="14">
+      <c r="N10" s="12">
         <v>0.44932854179288001</v>
       </c>
-      <c r="N10" s="16">
-        <v>0</v>
-      </c>
-      <c r="O10" s="17">
+      <c r="O10" s="14">
+        <v>0</v>
+      </c>
+      <c r="P10" s="15">
         <f t="shared" si="1"/>
         <v>0.55173734182836609</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="15">
-      <c r="A11" s="7" t="s">
+      <c r="Q10" s="32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15">
+      <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <v>0.707865253585789</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>0.61043084207125098</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>0.354719609892023</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>0.67888262952371503</v>
       </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-      <c r="G11" s="17">
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
         <f t="shared" si="0"/>
         <v>0.78396611169092612</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7" t="s">
+      <c r="H11" s="21">
+        <v>4</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="14">
+      <c r="K11" s="12">
         <v>0.57249687271838401</v>
       </c>
-      <c r="K11" s="14">
+      <c r="L11" s="12">
         <v>0.50769560310157402</v>
       </c>
-      <c r="L11" s="14">
+      <c r="M11" s="12">
         <v>0.293138279345175</v>
       </c>
-      <c r="M11" s="14">
+      <c r="N11" s="12">
         <v>0.46125335757209501</v>
       </c>
-      <c r="N11" s="16">
-        <v>0</v>
-      </c>
-      <c r="O11" s="17">
+      <c r="O11" s="14">
+        <v>0</v>
+      </c>
+      <c r="P11" s="15">
         <f t="shared" si="1"/>
         <v>0.61152803757907592</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9" t="str">
+      <c r="Q11" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="str">
         <f>INDEX($A4:$A10, MATCH(MAX(B4:B10), B4:B10, 0))</f>
         <v>v2-custom3</v>
       </c>
-      <c r="C12" s="9" t="str">
+      <c r="C12" s="7" t="str">
         <f>INDEX($A4:$A10, MATCH(MAX(C4:C10), C4:C10, 0))</f>
         <v>v2-json</v>
       </c>
-      <c r="D12" s="9" t="str">
+      <c r="D12" s="7" t="str">
         <f>INDEX($A4:$A10, MATCH(MAX(D4:D10), D4:D10, 0))</f>
         <v>v2-custom2</v>
       </c>
-      <c r="E12" s="9" t="str">
+      <c r="E12" s="7" t="str">
         <f>INDEX($A4:$A10, MATCH(MAX(E4:E10), E4:E10, 0))</f>
         <v>v2-custom1</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="18" t="str">
+      <c r="F12" s="7"/>
+      <c r="G12" s="16" t="str">
         <f>INDEX($A3:$A11, MATCH(MAX(G3:G11), G3:G11, 0))</f>
         <v>v2-custom3</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="9" t="str">
-        <f>INDEX($I4:$I10, MATCH(MAX(J4:J10), J4:J10, 0))</f>
+      <c r="I12" s="4"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="7" t="str">
+        <f>INDEX($J4:$J10, MATCH(MAX(K4:K10), K4:K10, 0))</f>
         <v>v2-custom3</v>
       </c>
-      <c r="K12" s="9" t="str">
-        <f>INDEX($I4:$I10, MATCH(MAX(K4:K10), K4:K10, 0))</f>
+      <c r="L12" s="7" t="str">
+        <f>INDEX($J4:$J10, MATCH(MAX(L4:L10), L4:L10, 0))</f>
         <v>v2-custom3</v>
       </c>
-      <c r="L12" s="9" t="str">
-        <f>INDEX($I4:$I10, MATCH(MAX(L4:L10), L4:L10, 0))</f>
+      <c r="M12" s="7" t="str">
+        <f>INDEX($J4:$J10, MATCH(MAX(M4:M10), M4:M10, 0))</f>
         <v>v2-custom2</v>
       </c>
-      <c r="M12" s="9" t="str">
-        <f>INDEX($I4:$I10, MATCH(MAX(M4:M10), M4:M10, 0))</f>
+      <c r="N12" s="7" t="str">
+        <f>INDEX($J4:$J10, MATCH(MAX(N4:N10), N4:N10, 0))</f>
         <v>v2-custom1</v>
       </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="18" t="str">
-        <f>INDEX($A3:$A11, MATCH(MAX(O3:O11), O3:O11, 0))</f>
+      <c r="O12" s="7"/>
+      <c r="P12" s="16" t="str">
+        <f>INDEX($A3:$A11, MATCH(MAX(P3:P11), P3:P11, 0))</f>
         <v>v2-custom1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15">
-      <c r="B16" s="13" t="s">
+    <row r="16" spans="1:18" ht="15">
+      <c r="B16" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="15" customHeight="1">
-      <c r="B17" s="19" t="s">
+    <row r="17" spans="2:15" ht="15" customHeight="1">
+      <c r="B17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-    </row>
-    <row r="18" spans="2:14" ht="15" customHeight="1">
-      <c r="B18" s="20" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="O17" s="17"/>
+    </row>
+    <row r="18" spans="2:15" ht="15" customHeight="1">
+      <c r="B18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-    </row>
-    <row r="19" spans="2:14" ht="15">
-      <c r="J19" s="7"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+    </row>
+    <row r="19" spans="2:15" ht="15">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="5"/>
     </row>
     <row r="34" spans="2:2" ht="15">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="11" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:O11">
     <sortCondition ref="A4"/>
   </sortState>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="L2:P2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E11 J4:M11">
+  <conditionalFormatting sqref="K4:N11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1966,4 +2201,606 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F758744-1632-45D8-A4DB-B5856146DE5F}">
+  <dimension ref="A2:Q16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.875" style="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" ht="15">
+      <c r="A2" s="8"/>
+      <c r="B2" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="39"/>
+    </row>
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.75504974410356296</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.55977703982417903</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.39944530634776798</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.66436600210141405</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <f>SUM(B4:E4)/3</f>
+        <v>0.79287936412564131</v>
+      </c>
+      <c r="H4" s="37">
+        <v>3</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.62167994979040897</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0.443242653899308</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0.31316880217411303</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0.474615614183509</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0</v>
+      </c>
+      <c r="P4" s="15">
+        <f>SUM(K4:N4)/3</f>
+        <v>0.6175690066824463</v>
+      </c>
+      <c r="Q4" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.65080741927236196</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.51973133284886297</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.36660114555434398</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.73129836462050102</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <f>SUM(B5:E5)/3</f>
+        <v>0.75614608743202327</v>
+      </c>
+      <c r="H5" s="31">
+        <v>7</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.53025837847817503</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0.35852590250772698</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0.297718380576314</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0.55126435288598696</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0</v>
+      </c>
+      <c r="P5" s="15">
+        <f>SUM(K5:N5)/3</f>
+        <v>0.57925567148273427</v>
+      </c>
+      <c r="Q5" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.64196914194553301</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.49105339690544397</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.35571091782145797</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.67817782769027601</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <f>SUM(B6:E6)/3</f>
+        <v>0.72230376145423703</v>
+      </c>
+      <c r="H6" s="31">
+        <v>8</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0.50705534553323806</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.33969105469042898</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0.28701985404348201</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0.45826861997513302</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0</v>
+      </c>
+      <c r="P6" s="15">
+        <f>SUM(K6:N6)/3</f>
+        <v>0.53067829141409406</v>
+      </c>
+      <c r="Q6" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.65317216938102995</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.60136759084712399</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.37706885415242802</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.65810151747081402</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <f>SUM(B7:E7)/3</f>
+        <v>0.76323671061713194</v>
+      </c>
+      <c r="H7" s="37">
+        <v>6</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0.51965108827678597</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0.47219641476811702</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0.28916158333874398</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0.42892705452089502</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0</v>
+      </c>
+      <c r="P7" s="15">
+        <f>SUM(K7:N7)/3</f>
+        <v>0.56997871363484731</v>
+      </c>
+      <c r="Q7" s="37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0.73654166430988099</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.60485185980141398</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.37179191632630298</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.69647259112469295</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <f>SUM(B8:E8)/3</f>
+        <v>0.80321934385409699</v>
+      </c>
+      <c r="H8" s="27">
+        <v>2</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0.59181280390205104</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0.463391936392056</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0.30798990657008801</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0.54775744859742603</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0</v>
+      </c>
+      <c r="P8" s="15">
+        <f>SUM(K8:N8)/3</f>
+        <v>0.63698403182054042</v>
+      </c>
+      <c r="Q8" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15">
+      <c r="A9" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0.62818271414788696</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.64232237922664004</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.41874624171707397</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.68315790035046897</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <f>SUM(B9:E9)/3</f>
+        <v>0.79080307848068998</v>
+      </c>
+      <c r="H9" s="37">
+        <v>4</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0.47772407390391303</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0.486333377784684</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0.34470864181045702</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0.51632181088843798</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
+        <f>SUM(K9:N9)/3</f>
+        <v>0.60836263479583075</v>
+      </c>
+      <c r="Q9" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0.62409744808888901</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.6002689053486</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.40904321581716802</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.68359994821887404</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <f>SUM(B10:E10)/3</f>
+        <v>0.7723365058245103</v>
+      </c>
+      <c r="H10" s="37">
+        <v>5</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0.46445231211645199</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0.424270018801994</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0.34174782438893397</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0.46415364601298098</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0</v>
+      </c>
+      <c r="P10" s="15">
+        <f>SUM(K10:N10)/3</f>
+        <v>0.56487460044012028</v>
+      </c>
+      <c r="Q10" s="32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.72880559050768201</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.60573861196447698</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.37811640799522001</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.72472186178285403</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <f>SUM(B11:E11)/3</f>
+        <v>0.81246082408341103</v>
+      </c>
+      <c r="H11" s="27">
+        <v>1</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0.56898239361653202</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0.50650789510729</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0.29976231798817998</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0.53939786492863595</v>
+      </c>
+      <c r="O11" s="14">
+        <v>0</v>
+      </c>
+      <c r="P11" s="15">
+        <f>SUM(K11:N11)/3</f>
+        <v>0.63821682388021272</v>
+      </c>
+      <c r="Q11" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(B4:B10), B4:B10, 0))</f>
+        <v>v0-unstruct</v>
+      </c>
+      <c r="C12" s="7" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(C4:C10), C4:C10, 0))</f>
+        <v>v2-json</v>
+      </c>
+      <c r="D12" s="7" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(D4:D10), D4:D10, 0))</f>
+        <v>v2-json</v>
+      </c>
+      <c r="E12" s="7" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(E4:E10), E4:E10, 0))</f>
+        <v>v2-custom1</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="16" t="str">
+        <f>INDEX($A3:$A11, MATCH(MAX(G3:G11), G3:G11, 0))</f>
+        <v>v2-toml</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="7" t="str">
+        <f>INDEX($J4:$J10, MATCH(MAX(K4:K10), K4:K10, 0))</f>
+        <v>v0-unstruct</v>
+      </c>
+      <c r="L12" s="7" t="str">
+        <f>INDEX($J4:$J10, MATCH(MAX(L4:L10), L4:L10, 0))</f>
+        <v>v2-json</v>
+      </c>
+      <c r="M12" s="7" t="str">
+        <f>INDEX($J4:$J10, MATCH(MAX(M4:M10), M4:M10, 0))</f>
+        <v>v2-json</v>
+      </c>
+      <c r="N12" s="7" t="str">
+        <f>INDEX($J4:$J10, MATCH(MAX(N4:N10), N4:N10, 0))</f>
+        <v>v2-custom1</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="16" t="str">
+        <f>INDEX($A3:$A11, MATCH(MAX(P3:P11), P3:P11, 0))</f>
+        <v>v2-toml</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15">
+      <c r="B15" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:P11">
+    <sortCondition ref="A4"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="L2:P2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="K4:N11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/question_01_score_analysis.xlsx
+++ b/results/question_01_score_analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashvinn\Documents\GitHub\LLM_Interpretability_Research\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashvi\PycharmProjects\LLM_Interpretability_Research\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3239390-3981-4594-9717-E6FC2CCCA17A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79040D3B-A498-427F-9C15-77EC7D3058AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{5E48FF71-2AC4-4518-9E04-3DE549F6596A}"/>
   </bookViews>
@@ -25,7 +25,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -132,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -299,7 +304,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -326,12 +331,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -356,10 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -369,22 +366,8 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,7 +397,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1200149</xdr:colOff>
+      <xdr:colOff>1162049</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
@@ -462,8 +445,8 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>981675</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>105046</xdr:rowOff>
     </xdr:to>
@@ -865,40 +848,40 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="8" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="1.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.25" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.85546875" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="20"/>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" s="30" t="s">
         <v>14</v>
       </c>
@@ -914,9 +897,9 @@
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
       <c r="O2" s="30"/>
-      <c r="P2" s="29"/>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1">
+      <c r="P2" s="26"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -952,9 +935,9 @@
       <c r="O3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="23"/>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="Q3" s="20"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -977,10 +960,10 @@
         <f>SUM(B4:D4)/3</f>
         <v>0.57846621009469867</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="18">
         <v>2</v>
       </c>
-      <c r="I4" s="21"/>
+      <c r="I4" s="18"/>
       <c r="J4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1003,11 +986,11 @@
         <f>SUM(K4:M4)/3</f>
         <v>0.456450377566541</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="Q4" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1030,10 +1013,10 @@
         <f t="shared" ref="G5:G12" si="0">SUM(B5:D5)/3</f>
         <v>0.41414976272354465</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="22">
         <v>9</v>
       </c>
-      <c r="I5" s="24"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1056,11 +1039,11 @@
         <f>SUM(K5:M5)/3</f>
         <v>0.29985818980833301</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="23">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1083,10 +1066,10 @@
         <f t="shared" si="0"/>
         <v>0.43395975930726699</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="22">
         <v>8</v>
       </c>
-      <c r="I6" s="24"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1109,11 +1092,11 @@
         <f t="shared" ref="P6:P12" si="1">SUM(K6:M6)/3</f>
         <v>0.30924465214480701</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="23">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1136,10 +1119,10 @@
         <f t="shared" si="0"/>
         <v>0.49904605443065658</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="18">
         <v>6</v>
       </c>
-      <c r="I7" s="21"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1162,11 +1145,11 @@
         <f t="shared" si="1"/>
         <v>0.37823283337021163</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1189,10 +1172,10 @@
         <f t="shared" si="0"/>
         <v>0.5348525346762717</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="18">
         <v>4</v>
       </c>
-      <c r="I8" s="21"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1215,12 +1198,12 @@
         <f t="shared" si="1"/>
         <v>0.38920584047789197</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="33" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="12">
@@ -1242,11 +1225,11 @@
         <f t="shared" si="0"/>
         <v>0.548354342002351</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="24">
         <v>3</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="33" t="s">
+      <c r="I9" s="18"/>
+      <c r="J9" s="29" t="s">
         <v>10</v>
       </c>
       <c r="K9" s="12">
@@ -1268,11 +1251,11 @@
         <f t="shared" si="1"/>
         <v>0.44167461963680993</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="Q9" s="25">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1295,10 +1278,10 @@
         <f t="shared" si="0"/>
         <v>0.46346085160863471</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="18">
         <v>7</v>
       </c>
-      <c r="I10" s="21"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1321,11 +1304,11 @@
         <f t="shared" si="1"/>
         <v>0.36341910470826227</v>
       </c>
-      <c r="Q10" s="22">
+      <c r="Q10" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1348,10 +1331,10 @@
         <f t="shared" si="0"/>
         <v>0.52504323839140865</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="18">
         <v>5</v>
       </c>
-      <c r="I11" s="21"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1374,12 +1357,12 @@
         <f t="shared" si="1"/>
         <v>0.39924828152471936</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="Q11" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="33" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="12">
@@ -1401,11 +1384,11 @@
         <f t="shared" si="0"/>
         <v>0.58166365592027636</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="24">
         <v>1</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="33" t="s">
+      <c r="I12" s="18"/>
+      <c r="J12" s="29" t="s">
         <v>6</v>
       </c>
       <c r="K12" s="12">
@@ -1427,21 +1410,21 @@
         <f t="shared" si="1"/>
         <v>0.4844833482466413</v>
       </c>
-      <c r="Q12" s="28">
+      <c r="Q12" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="str">
         <f>INDEX($A4:$A12, MATCH(MAX(B4:B12), B4:B12, 0))</f>
         <v>v2-html</v>
       </c>
       <c r="C13" s="7" t="str">
-        <f t="shared" ref="C13:D13" si="2">INDEX($A4:$A12, MATCH(MAX(C4:C12), C4:C12, 0))</f>
+        <f>INDEX($A4:$A12, MATCH(MAX(C4:C12), C4:C12, 0))</f>
         <v>v0-unstruct</v>
       </c>
       <c r="D13" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX($A4:$A12, MATCH(MAX(D4:D12), D4:D12, 0))</f>
         <v>v2-toml</v>
       </c>
       <c r="E13" s="7"/>
@@ -1472,35 +1455,35 @@
         <v>v2-toml</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="1" customFormat="1">
+    <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
         <v>17</v>
       </c>
       <c r="J17" s="10"/>
-      <c r="Q17" s="23"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="B18" s="17" t="s">
+      <c r="Q17" s="20"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="B19" s="17" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
-      <c r="B20" s="19" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -1548,45 +1531,45 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.25" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
       <c r="K1" s="11"/>
-      <c r="R1" s="22"/>
-    </row>
-    <row r="2" spans="1:18" ht="15">
+      <c r="R1" s="19"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="30" t="s">
         <v>14</v>
@@ -1603,10 +1586,10 @@
       <c r="N2" s="30"/>
       <c r="O2" s="30"/>
       <c r="P2" s="30"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="22"/>
-    </row>
-    <row r="3" spans="1:18" ht="15">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="19"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -1643,7 +1626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1666,10 +1649,10 @@
         <f>SUM(B4:E4)/3</f>
         <v>0.77936286743278094</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="18">
         <v>6</v>
       </c>
-      <c r="I4" s="21"/>
+      <c r="I4" s="18"/>
       <c r="J4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1692,11 +1675,11 @@
         <f>SUM(K4:N4)/3</f>
         <v>0.60280012264875393</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="Q4" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1719,10 +1702,10 @@
         <f t="shared" ref="G5:G11" si="0">SUM(B5:E5)/3</f>
         <v>0.78932657339022605</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="18">
         <v>3</v>
       </c>
-      <c r="I5" s="21"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1745,11 +1728,11 @@
         <f t="shared" ref="P5:P11" si="1">SUM(K5:N5)/3</f>
         <v>0.66418737130651662</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="Q5" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1772,10 +1755,10 @@
         <f t="shared" si="0"/>
         <v>0.75474607600509847</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="27">
         <v>7</v>
       </c>
-      <c r="I6" s="21"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1798,12 +1781,12 @@
         <f t="shared" si="1"/>
         <v>0.54187788685196925</v>
       </c>
-      <c r="Q6" s="32">
+      <c r="Q6" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="12">
@@ -1825,11 +1808,11 @@
         <f t="shared" si="0"/>
         <v>0.80171543250001809</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="24">
         <v>1</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="33" t="s">
+      <c r="I7" s="18"/>
+      <c r="J7" s="29" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="12">
@@ -1851,11 +1834,11 @@
         <f t="shared" si="1"/>
         <v>0.65977591259017843</v>
       </c>
-      <c r="Q7" s="27">
+      <c r="Q7" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1878,10 +1861,10 @@
         <f t="shared" si="0"/>
         <v>0.79640615027046335</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="24">
         <v>2</v>
       </c>
-      <c r="I8" s="21"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1904,11 +1887,11 @@
         <f t="shared" si="1"/>
         <v>0.63231995541443997</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1931,10 +1914,10 @@
         <f t="shared" si="0"/>
         <v>0.78326403915571463</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="18">
         <v>5</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1957,11 +1940,11 @@
         <f t="shared" si="1"/>
         <v>0.60306673621850104</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1984,10 +1967,10 @@
         <f t="shared" si="0"/>
         <v>0.73930229579307494</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="27">
         <v>8</v>
       </c>
-      <c r="I10" s="21"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="5" t="s">
         <v>11</v>
       </c>
@@ -2010,11 +1993,11 @@
         <f t="shared" si="1"/>
         <v>0.55173734182836609</v>
       </c>
-      <c r="Q10" s="32">
+      <c r="Q10" s="28">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -2037,10 +2020,10 @@
         <f t="shared" si="0"/>
         <v>0.78396611169092612</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="18">
         <v>4</v>
       </c>
-      <c r="I11" s="21"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="5" t="s">
         <v>6</v>
       </c>
@@ -2063,105 +2046,80 @@
         <f t="shared" si="1"/>
         <v>0.61152803757907592</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="Q11" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="7" t="str">
-        <f>INDEX($A4:$A10, MATCH(MAX(B4:B10), B4:B10, 0))</f>
+        <f>INDEX($A4:$A11, MATCH(MAX(B4:B11), B4:B11, 0))</f>
         <v>v2-custom3</v>
       </c>
       <c r="C12" s="7" t="str">
-        <f>INDEX($A4:$A10, MATCH(MAX(C4:C10), C4:C10, 0))</f>
+        <f t="shared" ref="C12:E12" si="2">INDEX($A4:$A11, MATCH(MAX(C4:C11), C4:C11, 0))</f>
         <v>v2-json</v>
       </c>
       <c r="D12" s="7" t="str">
-        <f>INDEX($A4:$A10, MATCH(MAX(D4:D10), D4:D10, 0))</f>
+        <f t="shared" si="2"/>
         <v>v2-custom2</v>
       </c>
       <c r="E12" s="7" t="str">
-        <f>INDEX($A4:$A10, MATCH(MAX(E4:E10), E4:E10, 0))</f>
+        <f>INDEX($A4:$A11, MATCH(MAX(E4:E11), E4:E11, 0))</f>
         <v>v2-custom1</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="16" t="str">
-        <f>INDEX($A3:$A11, MATCH(MAX(G3:G11), G3:G11, 0))</f>
+        <f>INDEX($A4:$A11, MATCH(MAX(G4:G11), G4:G11, 0))</f>
         <v>v2-custom3</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="8"/>
       <c r="K12" s="7" t="str">
-        <f>INDEX($J4:$J10, MATCH(MAX(K4:K10), K4:K10, 0))</f>
+        <f>INDEX($J4:$J11, MATCH(MAX(K4:K11), K4:K11, 0))</f>
         <v>v2-custom3</v>
       </c>
       <c r="L12" s="7" t="str">
-        <f>INDEX($J4:$J10, MATCH(MAX(L4:L10), L4:L10, 0))</f>
-        <v>v2-custom3</v>
+        <f>INDEX($J4:$J11, MATCH(MAX(L4:L11), L4:L11, 0))</f>
+        <v>v2-toml</v>
       </c>
       <c r="M12" s="7" t="str">
-        <f>INDEX($J4:$J10, MATCH(MAX(M4:M10), M4:M10, 0))</f>
+        <f>INDEX($J4:$J11, MATCH(MAX(M4:M11), M4:M11, 0))</f>
         <v>v2-custom2</v>
       </c>
       <c r="N12" s="7" t="str">
-        <f>INDEX($J4:$J10, MATCH(MAX(N4:N10), N4:N10, 0))</f>
+        <f>INDEX($J4:$J11, MATCH(MAX(N4:N11), N4:N11, 0))</f>
         <v>v2-custom1</v>
       </c>
       <c r="O12" s="7"/>
       <c r="P12" s="16" t="str">
-        <f>INDEX($A3:$A11, MATCH(MAX(P3:P11), P3:P11, 0))</f>
+        <f>INDEX($J4:$J11, MATCH(MAX(P4:P11), P4:P11, 0))</f>
         <v>v2-custom1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="15" customHeight="1">
-      <c r="B17" s="17" t="s">
+    <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="O17" s="17"/>
-    </row>
-    <row r="18" spans="2:15" ht="15" customHeight="1">
-      <c r="B18" s="18" t="s">
+    </row>
+    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-    </row>
-    <row r="19" spans="2:15" ht="15">
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="34" spans="2:2" ht="15">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>22</v>
       </c>
@@ -2174,8 +2132,8 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="L2:P2"/>
   </mergeCells>
-  <conditionalFormatting sqref="K4:N11">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="B4:E11">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2186,8 +2144,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:E11">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="K4:N11">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2208,30 +2166,30 @@
   <dimension ref="A2:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.875" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1.875" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="30" t="s">
         <v>14</v>
@@ -2248,9 +2206,9 @@
       <c r="N2" s="30"/>
       <c r="O2" s="30"/>
       <c r="P2" s="30"/>
-      <c r="Q2" s="39"/>
-    </row>
-    <row r="3" spans="1:17" ht="15">
+      <c r="Q2" s="26"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -2268,7 +2226,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="6"/>
-      <c r="H3" s="36"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="9"/>
       <c r="K3" s="2" t="s">
@@ -2287,7 +2245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -2307,13 +2265,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="15">
-        <f>SUM(B4:E4)/3</f>
+        <f t="shared" ref="G4:G11" si="0">SUM(B4:E4)/3</f>
         <v>0.79287936412564131</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="18">
         <v>3</v>
       </c>
-      <c r="I4" s="21"/>
+      <c r="I4" s="18"/>
       <c r="J4" s="5" t="s">
         <v>5</v>
       </c>
@@ -2333,14 +2291,14 @@
         <v>0</v>
       </c>
       <c r="P4" s="15">
-        <f>SUM(K4:N4)/3</f>
+        <f t="shared" ref="P4:P11" si="1">SUM(K4:N4)/3</f>
         <v>0.6175690066824463</v>
       </c>
-      <c r="Q4" s="40">
+      <c r="Q4" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -2360,13 +2318,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="15">
-        <f>SUM(B5:E5)/3</f>
+        <f t="shared" si="0"/>
         <v>0.75614608743202327</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="27">
         <v>7</v>
       </c>
-      <c r="I5" s="21"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="5" t="s">
         <v>8</v>
       </c>
@@ -2386,14 +2344,14 @@
         <v>0</v>
       </c>
       <c r="P5" s="15">
-        <f>SUM(K5:N5)/3</f>
+        <f t="shared" si="1"/>
         <v>0.57925567148273427</v>
       </c>
-      <c r="Q5" s="37">
+      <c r="Q5" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -2413,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="15">
-        <f>SUM(B6:E6)/3</f>
+        <f t="shared" si="0"/>
         <v>0.72230376145423703</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="27">
         <v>8</v>
       </c>
-      <c r="I6" s="21"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="5" t="s">
         <v>9</v>
       </c>
@@ -2439,14 +2397,14 @@
         <v>0</v>
       </c>
       <c r="P6" s="15">
-        <f>SUM(K6:N6)/3</f>
+        <f t="shared" si="1"/>
         <v>0.53067829141409406</v>
       </c>
-      <c r="Q6" s="32">
+      <c r="Q6" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -2466,13 +2424,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="15">
-        <f>SUM(B7:E7)/3</f>
+        <f t="shared" si="0"/>
         <v>0.76323671061713194</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="18">
         <v>6</v>
       </c>
-      <c r="I7" s="21"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="5" t="s">
         <v>16</v>
       </c>
@@ -2492,14 +2450,14 @@
         <v>0</v>
       </c>
       <c r="P7" s="15">
-        <f>SUM(K7:N7)/3</f>
+        <f t="shared" si="1"/>
         <v>0.56997871363484731</v>
       </c>
-      <c r="Q7" s="37">
+      <c r="Q7" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -2519,13 +2477,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="15">
-        <f>SUM(B8:E8)/3</f>
+        <f t="shared" si="0"/>
         <v>0.80321934385409699</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="24">
         <v>2</v>
       </c>
-      <c r="I8" s="21"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="5" t="s">
         <v>10</v>
       </c>
@@ -2545,15 +2503,15 @@
         <v>0</v>
       </c>
       <c r="P8" s="15">
-        <f>SUM(K8:N8)/3</f>
+        <f t="shared" si="1"/>
         <v>0.63698403182054042</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="25">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="12">
@@ -2572,14 +2530,14 @@
         <v>0</v>
       </c>
       <c r="G9" s="15">
-        <f>SUM(B9:E9)/3</f>
+        <f t="shared" si="0"/>
         <v>0.79080307848068998</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="18">
         <v>4</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="34" t="s">
+      <c r="I9" s="18"/>
+      <c r="J9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K9" s="12">
@@ -2598,14 +2556,14 @@
         <v>0</v>
       </c>
       <c r="P9" s="15">
-        <f>SUM(K9:N9)/3</f>
+        <f t="shared" si="1"/>
         <v>0.60836263479583075</v>
       </c>
-      <c r="Q9" s="40">
+      <c r="Q9" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -2625,13 +2583,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="15">
-        <f>SUM(B10:E10)/3</f>
+        <f t="shared" si="0"/>
         <v>0.7723365058245103</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="18">
         <v>5</v>
       </c>
-      <c r="I10" s="21"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="5" t="s">
         <v>11</v>
       </c>
@@ -2651,14 +2609,14 @@
         <v>0</v>
       </c>
       <c r="P10" s="15">
-        <f>SUM(K10:N10)/3</f>
+        <f t="shared" si="1"/>
         <v>0.56487460044012028</v>
       </c>
-      <c r="Q10" s="32">
+      <c r="Q10" s="28">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -2678,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="15">
-        <f>SUM(B11:E11)/3</f>
+        <f t="shared" si="0"/>
         <v>0.81246082408341103</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="24">
         <v>1</v>
       </c>
-      <c r="I11" s="21"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="5" t="s">
         <v>6</v>
       </c>
@@ -2704,67 +2662,67 @@
         <v>0</v>
       </c>
       <c r="P11" s="15">
-        <f>SUM(K11:N11)/3</f>
+        <f t="shared" si="1"/>
         <v>0.63821682388021272</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="Q11" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="7" t="str">
-        <f>INDEX($A4:$A10, MATCH(MAX(B4:B10), B4:B10, 0))</f>
+        <f>INDEX($A4:$A11, MATCH(MAX(B4:B11), B4:B11, 0))</f>
         <v>v0-unstruct</v>
       </c>
       <c r="C12" s="7" t="str">
-        <f>INDEX($A4:$A10, MATCH(MAX(C4:C10), C4:C10, 0))</f>
+        <f>INDEX($A4:$A11, MATCH(MAX(C4:C11), C4:C11, 0))</f>
         <v>v2-json</v>
       </c>
       <c r="D12" s="7" t="str">
-        <f>INDEX($A4:$A10, MATCH(MAX(D4:D10), D4:D10, 0))</f>
+        <f>INDEX($A4:$A11, MATCH(MAX(D4:D11), D4:D11, 0))</f>
         <v>v2-json</v>
       </c>
       <c r="E12" s="7" t="str">
-        <f>INDEX($A4:$A10, MATCH(MAX(E4:E10), E4:E10, 0))</f>
+        <f>INDEX($A4:$A11, MATCH(MAX(E4:E11), E4:E11, 0))</f>
         <v>v2-custom1</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="16" t="str">
-        <f>INDEX($A3:$A11, MATCH(MAX(G3:G11), G3:G11, 0))</f>
+        <f>INDEX($A4:$A11, MATCH(MAX(G4:G11), G4:G11, 0))</f>
         <v>v2-toml</v>
       </c>
-      <c r="H12" s="38"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="8"/>
       <c r="K12" s="7" t="str">
-        <f>INDEX($J4:$J10, MATCH(MAX(K4:K10), K4:K10, 0))</f>
+        <f>INDEX($J4:$J11, MATCH(MAX(K4:K11), K4:K11, 0))</f>
         <v>v0-unstruct</v>
       </c>
       <c r="L12" s="7" t="str">
-        <f>INDEX($J4:$J10, MATCH(MAX(L4:L10), L4:L10, 0))</f>
+        <f t="shared" ref="L12:N12" si="2">INDEX($J4:$J11, MATCH(MAX(L4:L11), L4:L11, 0))</f>
+        <v>v2-toml</v>
+      </c>
+      <c r="M12" s="7" t="str">
+        <f t="shared" si="2"/>
         <v>v2-json</v>
       </c>
-      <c r="M12" s="7" t="str">
-        <f>INDEX($J4:$J10, MATCH(MAX(M4:M10), M4:M10, 0))</f>
-        <v>v2-json</v>
-      </c>
       <c r="N12" s="7" t="str">
-        <f>INDEX($J4:$J10, MATCH(MAX(N4:N10), N4:N10, 0))</f>
+        <f t="shared" si="2"/>
         <v>v2-custom1</v>
       </c>
       <c r="O12" s="7"/>
       <c r="P12" s="16" t="str">
-        <f>INDEX($A3:$A11, MATCH(MAX(P3:P11), P3:P11, 0))</f>
+        <f>INDEX($J4:$J11, MATCH(MAX(P4:P11), P4:P11, 0))</f>
         <v>v2-toml</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>26</v>
       </c>
@@ -2777,8 +2735,8 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="L2:P2"/>
   </mergeCells>
-  <conditionalFormatting sqref="K4:N11">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="B4:E11">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2789,8 +2747,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:E11">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="K4:N11">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/results/question_01_score_analysis.xlsx
+++ b/results/question_01_score_analysis.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashvi\PycharmProjects\LLM_Interpretability_Research\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashvinn\Documents\GitHub\LLM_Interpretability_Research\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79040D3B-A498-427F-9C15-77EC7D3058AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DFEF74-B064-45FD-A7B9-1F0F51210306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{5E48FF71-2AC4-4518-9E04-3DE549F6596A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{5E48FF71-2AC4-4518-9E04-3DE549F6596A}"/>
   </bookViews>
   <sheets>
     <sheet name="Reading_01" sheetId="1" r:id="rId1"/>
     <sheet name="Reading_02" sheetId="2" r:id="rId2"/>
     <sheet name="Reading_03" sheetId="3" r:id="rId3"/>
+    <sheet name="Reading_04" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="27">
   <si>
     <t>llama3-70b-8192</t>
   </si>
@@ -253,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -285,11 +287,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -366,7 +381,13 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -882,21 +903,21 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
       <c r="P2" s="26"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1571,21 +1592,21 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="K2" s="8"/>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
       <c r="Q2" s="26"/>
       <c r="R2" s="19"/>
     </row>
@@ -2057,7 +2078,7 @@
         <v>v2-custom3</v>
       </c>
       <c r="C12" s="7" t="str">
-        <f t="shared" ref="C12:E12" si="2">INDEX($A4:$A11, MATCH(MAX(C4:C11), C4:C11, 0))</f>
+        <f t="shared" ref="C12:D12" si="2">INDEX($A4:$A11, MATCH(MAX(C4:C11), C4:C11, 0))</f>
         <v>v2-json</v>
       </c>
       <c r="D12" s="7" t="str">
@@ -2165,8 +2186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F758744-1632-45D8-A4DB-B5856146DE5F}">
   <dimension ref="A2:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2191,21 +2212,21 @@
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="K2" s="8"/>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
       <c r="Q2" s="26"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2761,4 +2782,1006 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574148B7-F8D1-42F1-8AFA-D3237162CD62}">
+  <dimension ref="A2:Q12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="26"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.71184085570050404</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.58106454332746105</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.365576259489303</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <f t="shared" ref="G4:G11" si="0">SUM(B4:D4)/3</f>
+        <v>0.55282721950575608</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.59044334482930905</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0.438522579025027</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0.28356502021098201</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0</v>
+      </c>
+      <c r="P4" s="15">
+        <f t="shared" ref="P4:P11" si="1">SUM(K4:M4)/3</f>
+        <v>0.43751031468843937</v>
+      </c>
+      <c r="Q4" s="19"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.58436080203665997</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.52553402734770505</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.33132473765366999</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <f t="shared" si="0"/>
+        <v>0.48040652234601167</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.42078426449511402</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0.36541921023916901</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0.27021104877602897</v>
+      </c>
+      <c r="N5" s="14">
+        <v>0</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0</v>
+      </c>
+      <c r="P5" s="15">
+        <f t="shared" si="1"/>
+        <v>0.35213817450343732</v>
+      </c>
+      <c r="Q5" s="18"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.49491571230701598</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.64496769801133902</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.37470477403603702</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <f t="shared" si="0"/>
+        <v>0.50486272811813071</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0.38314246140333003</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.48340031573595899</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0.29055542286972902</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0</v>
+      </c>
+      <c r="P6" s="15">
+        <f t="shared" si="1"/>
+        <v>0.38569940000300607</v>
+      </c>
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.55088580925045705</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.62871569490594803</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.37681316204642701</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <f t="shared" si="0"/>
+        <v>0.51880488873427733</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0.40678084034624301</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0.47328190527581299</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0.308226279017354</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0</v>
+      </c>
+      <c r="P7" s="15">
+        <f t="shared" si="1"/>
+        <v>0.39609634154647</v>
+      </c>
+      <c r="Q7" s="18"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0.67849729740378995</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.56854145971790304</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.33299817228037698</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <f t="shared" si="0"/>
+        <v>0.52667897646735662</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0.53246788336267403</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0.44566547391457301</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0.27594103823969202</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0</v>
+      </c>
+      <c r="P8" s="15">
+        <f t="shared" si="1"/>
+        <v>0.41802479850564639</v>
+      </c>
+      <c r="Q8" s="19"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0.71868769361578499</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.64573782315162898</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.373443190545663</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <f t="shared" si="0"/>
+        <v>0.57928956910435903</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0.604064561996972</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0.45375492560340802</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0.30554915899186702</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
+        <f t="shared" si="1"/>
+        <v>0.454456215530749</v>
+      </c>
+      <c r="Q9" s="19"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0.71591020037601505</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.530437187731985</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.33547116736990101</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <f t="shared" si="0"/>
+        <v>0.52727285182596706</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0.61808538561168902</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0.33456540633419202</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0.27881856540084299</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0</v>
+      </c>
+      <c r="P10" s="15">
+        <f t="shared" si="1"/>
+        <v>0.41048978578224138</v>
+      </c>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.71585822378924602</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.58135066673039204</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.41214694717879402</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.56978527923281064</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0.562683777151475</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0.45872962768245401</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0.34098951296403501</v>
+      </c>
+      <c r="N11" s="14">
+        <v>0</v>
+      </c>
+      <c r="O11" s="14">
+        <v>0</v>
+      </c>
+      <c r="P11" s="15">
+        <f t="shared" si="1"/>
+        <v>0.45413430593265464</v>
+      </c>
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(B4:B11), B4:B11, 0))</f>
+        <v>v2-json</v>
+      </c>
+      <c r="C12" s="7" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(C4:C11), C4:C11, 0))</f>
+        <v>v2-json</v>
+      </c>
+      <c r="D12" s="7" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(D4:D11), D4:D11, 0))</f>
+        <v>v2-toml</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="16" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(G4:G11), G4:G11, 0))</f>
+        <v>v2-json</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="7" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(K4:K11), K4:K11, 0))</f>
+        <v>v2-md</v>
+      </c>
+      <c r="L12" s="7" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(L4:L11), L4:L11, 0))</f>
+        <v>v2-custom2</v>
+      </c>
+      <c r="M12" s="7" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(M4:M11), M4:M11, 0))</f>
+        <v>v2-toml</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="16" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(P4:P11), P4:P11, 0))</f>
+        <v>v2-json</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:P11">
+    <sortCondition ref="A4:A11"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="L2:P2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:D11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:M11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7235E51-046D-463A-ABA3-9E15B2323142}">
+  <dimension ref="A2:P10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.75377282339842799</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.60046087843690599</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.34196078431372501</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <f>SUM(B4:D4)/3</f>
+        <v>0.56539816204968629</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.605902527135872</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0.46778079480805002</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0.29376906318082702</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0</v>
+      </c>
+      <c r="P4" s="15">
+        <f>SUM(K4:M4)/3</f>
+        <v>0.45581746170824972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.72492881066011305</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.58292660800145102</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.33761541930736499</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <f>SUM(B5:D5)/3</f>
+        <v>0.54849027932297634</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.60114224620308099</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0.434742508089146</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0.27178333214650202</v>
+      </c>
+      <c r="N5" s="14">
+        <v>0</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0</v>
+      </c>
+      <c r="P5" s="15">
+        <f>SUM(K5:M5)/3</f>
+        <v>0.43588936214624296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.64924178004535105</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.57339865215269203</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.395619571835506</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <f>SUM(B6:D6)/3</f>
+        <v>0.5394200013445164</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0.47625425170067998</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.447052384387089</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0.31981352811131902</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0</v>
+      </c>
+      <c r="P6" s="15">
+        <f>SUM(K6:M6)/3</f>
+        <v>0.41437338806636265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.68456883110855105</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.62951229572243605</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.35878353634264698</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <f>SUM(B7:D7)/3</f>
+        <v>0.55762155439121142</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0.54953324233070799</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0.50293360386740704</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0.29447336995462098</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0</v>
+      </c>
+      <c r="P7" s="15">
+        <f>SUM(K7:M7)/3</f>
+        <v>0.448980072050912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.662518715150064</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.55107945307726103</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.36631084399963099</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <f>SUM(B8:D8)/3</f>
+        <v>0.52663633740898541</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0.53002280696159099</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0.39909298153918199</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0.30682824675959602</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0</v>
+      </c>
+      <c r="P8" s="15">
+        <f>SUM(K8:M8)/3</f>
+        <v>0.41198134508678969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0.71397236355499005</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.61598215522187205</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.41762064720001602</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <f>SUM(B9:D9)/3</f>
+        <v>0.58252505532562615</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0.57506812681082597</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0.47229113498328201</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0.34775206540488601</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
+        <f>SUM(K9:M9)/3</f>
+        <v>0.46503710906633128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="7" t="str">
+        <f>INDEX($A4:$A9, MATCH(MAX(B4:B9), B4:B9, 0))</f>
+        <v>v0-unstruct</v>
+      </c>
+      <c r="C10" s="7" t="str">
+        <f>INDEX($A4:$A9, MATCH(MAX(C4:C9), C4:C9, 0))</f>
+        <v>v2-html</v>
+      </c>
+      <c r="D10" s="7" t="str">
+        <f>INDEX($A4:$A9, MATCH(MAX(D4:D9), D4:D9, 0))</f>
+        <v>v2-md</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="16" t="str">
+        <f>INDEX($A4:$A9, MATCH(MAX(G4:G9), G4:G9, 0))</f>
+        <v>v2-md</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="7" t="str">
+        <f>INDEX($A4:$A9, MATCH(MAX(K4:K9), K4:K9, 0))</f>
+        <v>v0-unstruct</v>
+      </c>
+      <c r="L10" s="7" t="str">
+        <f>INDEX($A4:$A9, MATCH(MAX(L4:L9), L4:L9, 0))</f>
+        <v>v2-html</v>
+      </c>
+      <c r="M10" s="7" t="str">
+        <f>INDEX($A4:$A9, MATCH(MAX(M4:M9), M4:M9, 0))</f>
+        <v>v2-md</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="16" t="str">
+        <f>INDEX($J4:$J9, MATCH(MAX(P4:P9), P4:P9, 0))</f>
+        <v>v2-md</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:P9">
+    <sortCondition ref="A4:A9"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="L2:P2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:D9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:M9">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/question_01_score_analysis.xlsx
+++ b/results/question_01_score_analysis.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashvinn\Documents\GitHub\LLM_Interpretability_Research\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DFEF74-B064-45FD-A7B9-1F0F51210306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5086FB-C758-4722-86AD-91E9E3D1B113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{5E48FF71-2AC4-4518-9E04-3DE549F6596A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5E48FF71-2AC4-4518-9E04-3DE549F6596A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Reading_01" sheetId="1" r:id="rId1"/>
-    <sheet name="Reading_02" sheetId="2" r:id="rId2"/>
-    <sheet name="Reading_03" sheetId="3" r:id="rId3"/>
-    <sheet name="Reading_04" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Reading_04" sheetId="4" r:id="rId3"/>
+    <sheet name="Reading_03" sheetId="3" r:id="rId4"/>
+    <sheet name="Reading_02" sheetId="2" r:id="rId5"/>
+    <sheet name="Reading_01" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="39">
   <si>
     <t>llama3-70b-8192</t>
   </si>
@@ -134,6 +135,42 @@
   <si>
     <t>Rouge Scores taken 5 times and averaged output</t>
   </si>
+  <si>
+    <t>Biased reference text input</t>
+  </si>
+  <si>
+    <t>v2.1-json</t>
+  </si>
+  <si>
+    <t>v2.1-unstruct</t>
+  </si>
+  <si>
+    <t>v2.1-html</t>
+  </si>
+  <si>
+    <t>v2.1-custom2</t>
+  </si>
+  <si>
+    <t>v2.1-custom1</t>
+  </si>
+  <si>
+    <t>v2.1-md</t>
+  </si>
+  <si>
+    <t>v2.1-toml</t>
+  </si>
+  <si>
+    <t>after controlled responses</t>
+  </si>
+  <si>
+    <t>temp 0.2, top_p=0.3</t>
+  </si>
+  <si>
+    <t>Q2 and Q3 docs is from a large file</t>
+  </si>
+  <si>
+    <t>5 readings average</t>
+  </si>
 </sst>
 </file>
 
@@ -211,7 +248,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +288,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -390,6 +433,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,55 +454,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>70484</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1162049</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D13EBB8-6F50-48D3-A07D-7CC5222E0B19}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4657724" y="2927984"/>
-          <a:ext cx="6677025" cy="4006215"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -538,6 +535,55 @@
         <a:xfrm>
           <a:off x="6042024" y="3752849"/>
           <a:ext cx="5730875" cy="3438525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>70484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1162049</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D13EBB8-6F50-48D3-A07D-7CC5222E0B19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4657724" y="2927984"/>
+          <a:ext cx="6677025" cy="4006215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -865,44 +911,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9EFC98-D1E5-43E5-A2E4-A1D13B750D1F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4995E4C-046C-4406-AAC8-C7699D34869B}">
+  <dimension ref="A2:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
       <c r="B2" s="31" t="s">
         <v>14</v>
       </c>
@@ -910,17 +946,16 @@
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="31"/>
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
-      <c r="P2" s="26"/>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="32"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -953,23 +988,22 @@
       <c r="N3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="20"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B4" s="12">
-        <v>0.72464906592558198</v>
+        <v>0.72440944881889702</v>
       </c>
       <c r="C4" s="12">
-        <v>0.62761682408291697</v>
+        <v>0.57721518987341702</v>
       </c>
       <c r="D4" s="12">
-        <v>0.38313274027559702</v>
+        <v>0.48421052631578898</v>
       </c>
       <c r="E4" s="14">
         <v>0</v>
@@ -979,23 +1013,21 @@
       </c>
       <c r="G4" s="15">
         <f>SUM(B4:D4)/3</f>
-        <v>0.57846621009469867</v>
-      </c>
-      <c r="H4" s="18">
-        <v>2</v>
-      </c>
+        <v>0.5952783883360343</v>
+      </c>
+      <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="5" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="K4" s="12">
-        <v>0.55344223148576999</v>
+        <v>0.464566929133858</v>
       </c>
       <c r="L4" s="12">
-        <v>0.514757671491195</v>
+        <v>0.4</v>
       </c>
       <c r="M4" s="12">
-        <v>0.30115122972265801</v>
+        <v>0.442105263157894</v>
       </c>
       <c r="N4" s="14">
         <v>0</v>
@@ -1005,24 +1037,21 @@
       </c>
       <c r="P4" s="15">
         <f>SUM(K4:M4)/3</f>
-        <v>0.456450377566541</v>
-      </c>
-      <c r="Q4" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.43555739743058403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B5" s="12">
-        <v>0.49982578011343398</v>
+        <v>0.71425962815404997</v>
       </c>
       <c r="C5" s="12">
-        <v>0.435238278516282</v>
+        <v>0.54901960784313697</v>
       </c>
       <c r="D5" s="12">
-        <v>0.30738522954091801</v>
+        <v>0.29189189189189102</v>
       </c>
       <c r="E5" s="14">
         <v>0</v>
@@ -1031,24 +1060,22 @@
         <v>0</v>
       </c>
       <c r="G5" s="15">
-        <f t="shared" ref="G5:G12" si="0">SUM(B5:D5)/3</f>
-        <v>0.41414976272354465</v>
-      </c>
-      <c r="H5" s="22">
-        <v>9</v>
-      </c>
-      <c r="I5" s="21"/>
+        <f>SUM(B5:D5)/3</f>
+        <v>0.51839037596302606</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="5" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="K5" s="12">
-        <v>0.36036963581856901</v>
+        <v>0.52919354328716794</v>
       </c>
       <c r="L5" s="12">
-        <v>0.27573187971421498</v>
+        <v>0.33823529411764702</v>
       </c>
       <c r="M5" s="12">
-        <v>0.26347305389221498</v>
+        <v>0.22702702702702601</v>
       </c>
       <c r="N5" s="14">
         <v>0</v>
@@ -1058,24 +1085,21 @@
       </c>
       <c r="P5" s="15">
         <f>SUM(K5:M5)/3</f>
-        <v>0.29985818980833301</v>
-      </c>
-      <c r="Q5" s="23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.36481862147728034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13">
-        <v>0.54521269983342002</v>
+        <v>30</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.69502551020408099</v>
       </c>
       <c r="C6" s="12">
-        <v>0.46271629357205901</v>
+        <v>0.49489795918367302</v>
       </c>
       <c r="D6" s="12">
-        <v>0.29395028451632199</v>
+        <v>0.29189189189189102</v>
       </c>
       <c r="E6" s="14">
         <v>0</v>
@@ -1084,24 +1108,22 @@
         <v>0</v>
       </c>
       <c r="G6" s="15">
-        <f t="shared" si="0"/>
-        <v>0.43395975930726699</v>
-      </c>
-      <c r="H6" s="22">
-        <v>8</v>
-      </c>
-      <c r="I6" s="21"/>
+        <f>SUM(B6:D6)/3</f>
+        <v>0.49393845375988166</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="5" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="K6" s="12">
-        <v>0.36238976085697899</v>
+        <v>0.51862244897959098</v>
       </c>
       <c r="L6" s="12">
-        <v>0.30778205122284502</v>
+        <v>0.280612244897959</v>
       </c>
       <c r="M6" s="12">
-        <v>0.25756214435459701</v>
+        <v>0.22702702702702601</v>
       </c>
       <c r="N6" s="14">
         <v>0</v>
@@ -1110,25 +1132,22 @@
         <v>0</v>
       </c>
       <c r="P6" s="15">
-        <f t="shared" ref="P6:P12" si="1">SUM(K6:M6)/3</f>
-        <v>0.30924465214480701</v>
-      </c>
-      <c r="Q6" s="23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <f>SUM(K6:M6)/3</f>
+        <v>0.34208724030152532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B7" s="12">
-        <v>0.60989830995247396</v>
+        <v>0.70454545454545403</v>
       </c>
       <c r="C7" s="12">
-        <v>0.54562314346339302</v>
+        <v>0.495798319327731</v>
       </c>
       <c r="D7" s="12">
-        <v>0.34161670987610299</v>
+        <v>0.464864864864864</v>
       </c>
       <c r="E7" s="14">
         <v>0</v>
@@ -1137,24 +1156,22 @@
         <v>0</v>
       </c>
       <c r="G7" s="15">
-        <f t="shared" si="0"/>
-        <v>0.49904605443065658</v>
-      </c>
-      <c r="H7" s="18">
-        <v>6</v>
-      </c>
+        <f>SUM(B7:D7)/3</f>
+        <v>0.55506954624601634</v>
+      </c>
+      <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="5" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="K7" s="12">
-        <v>0.44434331003435001</v>
+        <v>0.51515151515151503</v>
       </c>
       <c r="L7" s="12">
-        <v>0.41671048505651798</v>
+        <v>0.373949579831932</v>
       </c>
       <c r="M7" s="12">
-        <v>0.27364470501976701</v>
+        <v>0.41081081081081</v>
       </c>
       <c r="N7" s="14">
         <v>0</v>
@@ -1163,25 +1180,22 @@
         <v>0</v>
       </c>
       <c r="P7" s="15">
-        <f t="shared" si="1"/>
-        <v>0.37823283337021163</v>
-      </c>
-      <c r="Q7" s="19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <f>SUM(K7:M7)/3</f>
+        <v>0.43330396859808568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B8" s="12">
-        <v>0.68420650844722397</v>
+        <v>0.72389859688680003</v>
       </c>
       <c r="C8" s="12">
-        <v>0.56550541656924602</v>
+        <v>0.58522727272727204</v>
       </c>
       <c r="D8" s="12">
-        <v>0.35484567901234498</v>
+        <v>0.34682080924855402</v>
       </c>
       <c r="E8" s="14">
         <v>0</v>
@@ -1190,24 +1204,22 @@
         <v>0</v>
       </c>
       <c r="G8" s="15">
-        <f t="shared" si="0"/>
-        <v>0.5348525346762717</v>
-      </c>
-      <c r="H8" s="18">
-        <v>4</v>
-      </c>
+        <f>SUM(B8:D8)/3</f>
+        <v>0.55198222628754212</v>
+      </c>
+      <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="5" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="K8" s="12">
-        <v>0.53074301755562703</v>
+        <v>0.47331673956154402</v>
       </c>
       <c r="L8" s="12">
-        <v>0.35783129400150598</v>
+        <v>0.43181818181818099</v>
       </c>
       <c r="M8" s="12">
-        <v>0.27904320987654302</v>
+        <v>0.26589595375722502</v>
       </c>
       <c r="N8" s="14">
         <v>0</v>
@@ -1216,25 +1228,22 @@
         <v>0</v>
       </c>
       <c r="P8" s="15">
-        <f t="shared" si="1"/>
-        <v>0.38920584047789197</v>
-      </c>
-      <c r="Q8" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>10</v>
+        <f>SUM(K8:M8)/3</f>
+        <v>0.39034362504565001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B9" s="12">
-        <v>0.74671364674347596</v>
+        <v>0.64377189043556304</v>
       </c>
       <c r="C9" s="12">
-        <v>0.54378525220363005</v>
+        <v>0</v>
       </c>
       <c r="D9" s="12">
-        <v>0.354564127059947</v>
+        <v>0.45989304812834197</v>
       </c>
       <c r="E9" s="14">
         <v>0</v>
@@ -1243,24 +1252,22 @@
         <v>0</v>
       </c>
       <c r="G9" s="15">
-        <f t="shared" si="0"/>
-        <v>0.548354342002351</v>
-      </c>
-      <c r="H9" s="24">
-        <v>3</v>
-      </c>
+        <f>SUM(B9:D9)/3</f>
+        <v>0.36788831285463502</v>
+      </c>
+      <c r="H9" s="18"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="29" t="s">
-        <v>10</v>
+      <c r="J9" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="K9" s="12">
-        <v>0.62230958748806997</v>
+        <v>0.52598114054782197</v>
       </c>
       <c r="L9" s="12">
-        <v>0.412433773585139</v>
+        <v>0</v>
       </c>
       <c r="M9" s="12">
-        <v>0.29028049783722099</v>
+        <v>0.38502673796791398</v>
       </c>
       <c r="N9" s="14">
         <v>0</v>
@@ -1269,25 +1276,22 @@
         <v>0</v>
       </c>
       <c r="P9" s="15">
-        <f t="shared" si="1"/>
-        <v>0.44167461963680993</v>
-      </c>
-      <c r="Q9" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <f>SUM(K9:M9)/3</f>
+        <v>0.30366929283857863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="12">
-        <v>0.562451477827699</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0.63322398352569298</v>
       </c>
       <c r="C10" s="12">
-        <v>0.43019750239054999</v>
+        <v>0.58375634517766495</v>
       </c>
       <c r="D10" s="12">
-        <v>0.39773357460765502</v>
+        <v>0.32558139534883701</v>
       </c>
       <c r="E10" s="14">
         <v>0</v>
@@ -1296,24 +1300,22 @@
         <v>0</v>
       </c>
       <c r="G10" s="15">
-        <f t="shared" si="0"/>
-        <v>0.46346085160863471</v>
-      </c>
-      <c r="H10" s="18">
-        <v>7</v>
-      </c>
+        <f>SUM(B10:D10)/3</f>
+        <v>0.51418724135073157</v>
+      </c>
+      <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="5" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="K10" s="12">
-        <v>0.42207427956232701</v>
+        <v>0.48352329869259097</v>
       </c>
       <c r="L10" s="12">
-        <v>0.32910499680730398</v>
+        <v>0.45177664974619203</v>
       </c>
       <c r="M10" s="12">
-        <v>0.33907803775515599</v>
+        <v>0.26744186046511598</v>
       </c>
       <c r="N10" s="14">
         <v>0</v>
@@ -1322,202 +1324,93 @@
         <v>0</v>
       </c>
       <c r="P10" s="15">
+        <f>SUM(K10:M10)/3</f>
+        <v>0.40091393630129968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="33" t="str">
+        <f t="shared" ref="B11:D11" si="0">INDEX($A4:$A10, MATCH(MAX(B4:B10), B4:B10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="C11" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>v2.1-md</v>
+      </c>
+      <c r="D11" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="16" t="str">
+        <f>INDEX($A4:$A10, MATCH(MAX(G4:G10), G4:G10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="33" t="str">
+        <f t="shared" ref="K11:M11" si="1">INDEX($J4:$J10, MATCH(MAX(K4:K10), K4:K10, 0))</f>
+        <v>v2.1-custom2</v>
+      </c>
+      <c r="L11" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>0.36341910470826227</v>
-      </c>
-      <c r="Q10" s="19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="12">
-        <v>0.68273115081357105</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0.52807935012796703</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0.36431921423268798</v>
-      </c>
-      <c r="E11" s="14">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="15">
-        <f t="shared" si="0"/>
-        <v>0.52504323839140865</v>
-      </c>
-      <c r="H11" s="18">
-        <v>5</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="12">
-        <v>0.56385667281505203</v>
-      </c>
-      <c r="L11" s="12">
-        <v>0.34243817541662802</v>
-      </c>
-      <c r="M11" s="12">
-        <v>0.29144999634247798</v>
-      </c>
-      <c r="N11" s="14">
-        <v>0</v>
-      </c>
-      <c r="O11" s="14">
-        <v>0</v>
-      </c>
-      <c r="P11" s="15">
+        <v>v2.1-unstruct</v>
+      </c>
+      <c r="M11" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>0.39924828152471936</v>
-      </c>
-      <c r="Q11" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="12">
-        <v>0.67405256072727804</v>
-      </c>
-      <c r="C12" s="12">
-        <v>0.58713510560976601</v>
-      </c>
-      <c r="D12" s="12">
-        <v>0.48380330142378503</v>
-      </c>
-      <c r="E12" s="14">
-        <v>0</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-      <c r="G12" s="15">
-        <f t="shared" si="0"/>
-        <v>0.58166365592027636</v>
-      </c>
-      <c r="H12" s="24">
-        <v>1</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="12">
-        <v>0.56667539980744397</v>
-      </c>
-      <c r="L12" s="12">
-        <v>0.50320637501880705</v>
-      </c>
-      <c r="M12" s="12">
-        <v>0.38356826991367299</v>
-      </c>
-      <c r="N12" s="14">
-        <v>0</v>
-      </c>
-      <c r="O12" s="14">
-        <v>0</v>
-      </c>
-      <c r="P12" s="15">
-        <f t="shared" si="1"/>
-        <v>0.4844833482466413</v>
-      </c>
-      <c r="Q12" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="str">
-        <f>INDEX($A4:$A12, MATCH(MAX(B4:B12), B4:B12, 0))</f>
-        <v>v2-html</v>
-      </c>
-      <c r="C13" s="7" t="str">
-        <f>INDEX($A4:$A12, MATCH(MAX(C4:C12), C4:C12, 0))</f>
-        <v>v0-unstruct</v>
-      </c>
-      <c r="D13" s="7" t="str">
-        <f>INDEX($A4:$A12, MATCH(MAX(D4:D12), D4:D12, 0))</f>
-        <v>v2-toml</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="16" t="str">
-        <f>INDEX($A4:$A12, MATCH(MAX(G4:G12), G4:G12, 0))</f>
-        <v>v2-toml</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="7" t="str">
-        <f>INDEX($J4:$J12, MATCH(MAX(K4:K12), K4:K12, 0))</f>
-        <v>v2-html</v>
-      </c>
-      <c r="L13" s="7" t="str">
-        <f>INDEX($J4:$J12, MATCH(MAX(L4:L12), L4:L12, 0))</f>
-        <v>v0-unstruct</v>
-      </c>
-      <c r="M13" s="7" t="str">
-        <f>INDEX($J4:$J12, MATCH(MAX(M4:M12), M4:M12, 0))</f>
-        <v>v2-toml</v>
-      </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="16" t="str">
-        <f>INDEX($A4:$A12, MATCH(MAX(P4:P12), P4:P12, 0))</f>
-        <v>v2-toml</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="10"/>
-      <c r="Q17" s="20"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>25</v>
+        <v>v2.1-custom1</v>
+      </c>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="16" t="str">
+        <f>INDEX($J4:$J10, MATCH(MAX(P4:P10), P4:P10, 0))</f>
+        <v>v2.1-custom1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:O12">
-    <sortCondition ref="A4"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:P10">
+    <sortCondition ref="A4:A10"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="L2:P2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:D12">
+  <conditionalFormatting sqref="B4:D10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:M10">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1529,7 +1422,1002 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:M12">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7235E51-046D-463A-ABA3-9E15B2323142}">
+  <dimension ref="A2:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.75377282339842799</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.60046087843690599</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.34196078431372501</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <f t="shared" ref="G4:G9" si="0">SUM(B4:D4)/3</f>
+        <v>0.56539816204968629</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.605902527135872</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0.46778079480805002</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0.29376906318082702</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0</v>
+      </c>
+      <c r="P4" s="15">
+        <f t="shared" ref="P4:P9" si="1">SUM(K4:M4)/3</f>
+        <v>0.45581746170824972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.72492881066011305</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.58292660800145102</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.33761541930736499</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <f t="shared" si="0"/>
+        <v>0.54849027932297634</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.60114224620308099</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0.434742508089146</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0.27178333214650202</v>
+      </c>
+      <c r="N5" s="14">
+        <v>0</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0</v>
+      </c>
+      <c r="P5" s="15">
+        <f t="shared" si="1"/>
+        <v>0.43588936214624296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.64924178004535105</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.57339865215269203</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.395619571835506</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <f t="shared" si="0"/>
+        <v>0.5394200013445164</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0.47625425170067998</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.447052384387089</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0.31981352811131902</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0</v>
+      </c>
+      <c r="P6" s="15">
+        <f t="shared" si="1"/>
+        <v>0.41437338806636265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.68456883110855105</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.62951229572243605</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.35878353634264698</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <f t="shared" si="0"/>
+        <v>0.55762155439121142</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0.54953324233070799</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0.50293360386740704</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0.29447336995462098</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0</v>
+      </c>
+      <c r="P7" s="15">
+        <f t="shared" si="1"/>
+        <v>0.448980072050912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.662518715150064</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.55107945307726103</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.36631084399963099</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <f t="shared" si="0"/>
+        <v>0.52663633740898541</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0.53002280696159099</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0.39909298153918199</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0.30682824675959602</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0</v>
+      </c>
+      <c r="P8" s="15">
+        <f t="shared" si="1"/>
+        <v>0.41198134508678969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0.71397236355499005</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.61598215522187205</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.41762064720001602</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <f t="shared" si="0"/>
+        <v>0.58252505532562615</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0.57506812681082597</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0.47229113498328201</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0.34775206540488601</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
+        <f t="shared" si="1"/>
+        <v>0.46503710906633128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="7" t="str">
+        <f>INDEX($A4:$A9, MATCH(MAX(B4:B9), B4:B9, 0))</f>
+        <v>v0-unstruct</v>
+      </c>
+      <c r="C10" s="7" t="str">
+        <f>INDEX($A4:$A9, MATCH(MAX(C4:C9), C4:C9, 0))</f>
+        <v>v2-html</v>
+      </c>
+      <c r="D10" s="7" t="str">
+        <f>INDEX($A4:$A9, MATCH(MAX(D4:D9), D4:D9, 0))</f>
+        <v>v2-md</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="16" t="str">
+        <f>INDEX($A4:$A9, MATCH(MAX(G4:G9), G4:G9, 0))</f>
+        <v>v2-md</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="7" t="str">
+        <f>INDEX($A4:$A9, MATCH(MAX(K4:K9), K4:K9, 0))</f>
+        <v>v0-unstruct</v>
+      </c>
+      <c r="L10" s="7" t="str">
+        <f>INDEX($A4:$A9, MATCH(MAX(L4:L9), L4:L9, 0))</f>
+        <v>v2-html</v>
+      </c>
+      <c r="M10" s="7" t="str">
+        <f>INDEX($A4:$A9, MATCH(MAX(M4:M9), M4:M9, 0))</f>
+        <v>v2-md</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="16" t="str">
+        <f>INDEX($J4:$J9, MATCH(MAX(P4:P9), P4:P9, 0))</f>
+        <v>v2-md</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:P9">
+    <sortCondition ref="A4:A9"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="L2:P2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:D9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:M9">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574148B7-F8D1-42F1-8AFA-D3237162CD62}">
+  <dimension ref="A2:Q12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="26"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.71184085570050404</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.58106454332746105</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.365576259489303</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <f t="shared" ref="G4:G11" si="0">SUM(B4:D4)/3</f>
+        <v>0.55282721950575608</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.59044334482930905</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0.438522579025027</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0.28356502021098201</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0</v>
+      </c>
+      <c r="P4" s="15">
+        <f t="shared" ref="P4:P11" si="1">SUM(K4:M4)/3</f>
+        <v>0.43751031468843937</v>
+      </c>
+      <c r="Q4" s="19"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.58436080203665997</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.52553402734770505</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.33132473765366999</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <f t="shared" si="0"/>
+        <v>0.48040652234601167</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.42078426449511402</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0.36541921023916901</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0.27021104877602897</v>
+      </c>
+      <c r="N5" s="14">
+        <v>0</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0</v>
+      </c>
+      <c r="P5" s="15">
+        <f t="shared" si="1"/>
+        <v>0.35213817450343732</v>
+      </c>
+      <c r="Q5" s="18"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.49491571230701598</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.64496769801133902</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.37470477403603702</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <f t="shared" si="0"/>
+        <v>0.50486272811813071</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0.38314246140333003</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.48340031573595899</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0.29055542286972902</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0</v>
+      </c>
+      <c r="P6" s="15">
+        <f t="shared" si="1"/>
+        <v>0.38569940000300607</v>
+      </c>
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.55088580925045705</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.62871569490594803</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.37681316204642701</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <f t="shared" si="0"/>
+        <v>0.51880488873427733</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0.40678084034624301</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0.47328190527581299</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0.308226279017354</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0</v>
+      </c>
+      <c r="P7" s="15">
+        <f t="shared" si="1"/>
+        <v>0.39609634154647</v>
+      </c>
+      <c r="Q7" s="18"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0.67849729740378995</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.56854145971790304</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.33299817228037698</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <f t="shared" si="0"/>
+        <v>0.52667897646735662</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0.53246788336267403</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0.44566547391457301</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0.27594103823969202</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0</v>
+      </c>
+      <c r="P8" s="15">
+        <f t="shared" si="1"/>
+        <v>0.41802479850564639</v>
+      </c>
+      <c r="Q8" s="19"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0.71868769361578499</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.64573782315162898</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.373443190545663</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <f t="shared" si="0"/>
+        <v>0.57928956910435903</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0.604064561996972</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0.45375492560340802</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0.30554915899186702</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
+        <f t="shared" si="1"/>
+        <v>0.454456215530749</v>
+      </c>
+      <c r="Q9" s="19"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0.71591020037601505</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.530437187731985</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.33547116736990101</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <f t="shared" si="0"/>
+        <v>0.52727285182596706</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0.61808538561168902</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0.33456540633419202</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0.27881856540084299</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0</v>
+      </c>
+      <c r="P10" s="15">
+        <f t="shared" si="1"/>
+        <v>0.41048978578224138</v>
+      </c>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.71585822378924602</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.58135066673039204</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.41214694717879402</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.56978527923281064</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0.562683777151475</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0.45872962768245401</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0.34098951296403501</v>
+      </c>
+      <c r="N11" s="14">
+        <v>0</v>
+      </c>
+      <c r="O11" s="14">
+        <v>0</v>
+      </c>
+      <c r="P11" s="15">
+        <f t="shared" si="1"/>
+        <v>0.45413430593265464</v>
+      </c>
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(B4:B11), B4:B11, 0))</f>
+        <v>v2-json</v>
+      </c>
+      <c r="C12" s="7" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(C4:C11), C4:C11, 0))</f>
+        <v>v2-json</v>
+      </c>
+      <c r="D12" s="7" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(D4:D11), D4:D11, 0))</f>
+        <v>v2-toml</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="16" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(G4:G11), G4:G11, 0))</f>
+        <v>v2-json</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="7" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(K4:K11), K4:K11, 0))</f>
+        <v>v2-md</v>
+      </c>
+      <c r="L12" s="7" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(L4:L11), L4:L11, 0))</f>
+        <v>v2-custom2</v>
+      </c>
+      <c r="M12" s="7" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(M4:M11), M4:M11, 0))</f>
+        <v>v2-toml</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="16" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(P4:P11), P4:P11, 0))</f>
+        <v>v2-json</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:P11">
+    <sortCondition ref="A4:A11"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="L2:P2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:D11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:M11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1542,12 +2430,612 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F758744-1632-45D8-A4DB-B5856146DE5F}">
+  <dimension ref="A2:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="26"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.75504974410356296</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.55977703982417903</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.39944530634776798</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.66436600210141405</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <f t="shared" ref="G4:G11" si="0">SUM(B4:E4)/3</f>
+        <v>0.79287936412564131</v>
+      </c>
+      <c r="H4" s="18">
+        <v>3</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.62167994979040897</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0.443242653899308</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0.31316880217411303</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0.474615614183509</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0</v>
+      </c>
+      <c r="P4" s="15">
+        <f t="shared" ref="P4:P11" si="1">SUM(K4:N4)/3</f>
+        <v>0.6175690066824463</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.65080741927236196</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.51973133284886297</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.36660114555434398</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.73129836462050102</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <f t="shared" si="0"/>
+        <v>0.75614608743202327</v>
+      </c>
+      <c r="H5" s="27">
+        <v>7</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.53025837847817503</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0.35852590250772698</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0.297718380576314</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0.55126435288598696</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0</v>
+      </c>
+      <c r="P5" s="15">
+        <f t="shared" si="1"/>
+        <v>0.57925567148273427</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.64196914194553301</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.49105339690544397</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.35571091782145797</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.67817782769027601</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <f t="shared" si="0"/>
+        <v>0.72230376145423703</v>
+      </c>
+      <c r="H6" s="27">
+        <v>8</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0.50705534553323806</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.33969105469042898</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0.28701985404348201</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0.45826861997513302</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0</v>
+      </c>
+      <c r="P6" s="15">
+        <f t="shared" si="1"/>
+        <v>0.53067829141409406</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.65317216938102995</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.60136759084712399</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.37706885415242802</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.65810151747081402</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <f t="shared" si="0"/>
+        <v>0.76323671061713194</v>
+      </c>
+      <c r="H7" s="18">
+        <v>6</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0.51965108827678597</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0.47219641476811702</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0.28916158333874398</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0.42892705452089502</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0</v>
+      </c>
+      <c r="P7" s="15">
+        <f t="shared" si="1"/>
+        <v>0.56997871363484731</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0.73654166430988099</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.60485185980141398</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.37179191632630298</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.69647259112469295</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <f t="shared" si="0"/>
+        <v>0.80321934385409699</v>
+      </c>
+      <c r="H8" s="24">
+        <v>2</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0.59181280390205104</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0.463391936392056</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0.30798990657008801</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0.54775744859742603</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0</v>
+      </c>
+      <c r="P8" s="15">
+        <f t="shared" si="1"/>
+        <v>0.63698403182054042</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0.62818271414788696</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.64232237922664004</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.41874624171707397</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.68315790035046897</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <f t="shared" si="0"/>
+        <v>0.79080307848068998</v>
+      </c>
+      <c r="H9" s="18">
+        <v>4</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0.47772407390391303</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0.486333377784684</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0.34470864181045702</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0.51632181088843798</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
+        <f t="shared" si="1"/>
+        <v>0.60836263479583075</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0.62409744808888901</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.6002689053486</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.40904321581716802</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.68359994821887404</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <f t="shared" si="0"/>
+        <v>0.7723365058245103</v>
+      </c>
+      <c r="H10" s="18">
+        <v>5</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0.46445231211645199</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0.424270018801994</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0.34174782438893397</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0.46415364601298098</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0</v>
+      </c>
+      <c r="P10" s="15">
+        <f t="shared" si="1"/>
+        <v>0.56487460044012028</v>
+      </c>
+      <c r="Q10" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.72880559050768201</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.60573861196447698</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.37811640799522001</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.72472186178285403</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.81246082408341103</v>
+      </c>
+      <c r="H11" s="24">
+        <v>1</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0.56898239361653202</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0.50650789510729</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0.29976231798817998</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0.53939786492863595</v>
+      </c>
+      <c r="O11" s="14">
+        <v>0</v>
+      </c>
+      <c r="P11" s="15">
+        <f t="shared" si="1"/>
+        <v>0.63821682388021272</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(B4:B11), B4:B11, 0))</f>
+        <v>v0-unstruct</v>
+      </c>
+      <c r="C12" s="7" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(C4:C11), C4:C11, 0))</f>
+        <v>v2-json</v>
+      </c>
+      <c r="D12" s="7" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(D4:D11), D4:D11, 0))</f>
+        <v>v2-json</v>
+      </c>
+      <c r="E12" s="7" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(E4:E11), E4:E11, 0))</f>
+        <v>v2-custom1</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="16" t="str">
+        <f>INDEX($A4:$A11, MATCH(MAX(G4:G11), G4:G11, 0))</f>
+        <v>v2-toml</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="7" t="str">
+        <f>INDEX($J4:$J11, MATCH(MAX(K4:K11), K4:K11, 0))</f>
+        <v>v0-unstruct</v>
+      </c>
+      <c r="L12" s="7" t="str">
+        <f t="shared" ref="L12:N12" si="2">INDEX($J4:$J11, MATCH(MAX(L4:L11), L4:L11, 0))</f>
+        <v>v2-toml</v>
+      </c>
+      <c r="M12" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>v2-json</v>
+      </c>
+      <c r="N12" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>v2-custom1</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="16" t="str">
+        <f>INDEX($J4:$J11, MATCH(MAX(P4:P11), P4:P11, 0))</f>
+        <v>v2-toml</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:P11">
+    <sortCondition ref="A4"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="L2:P2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:E11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:N11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF4AF6-0912-4220-B4C3-BF232FD814B9}">
   <dimension ref="A1:R34"/>
   <sheetViews>
@@ -2182,36 +3670,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F758744-1632-45D8-A4DB-B5856146DE5F}">
-  <dimension ref="A2:Q16"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9EFC98-D1E5-43E5-A2E4-A1D13B750D1F}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.85546875" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
       <c r="B2" s="31" t="s">
         <v>14</v>
       </c>
@@ -2219,17 +3716,17 @@
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="31" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="31" t="s">
         <v>15</v>
       </c>
+      <c r="L2" s="31"/>
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="26"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P2" s="26"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -2265,510 +3762,568 @@
       <c r="O3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="12">
-        <v>0.75504974410356296</v>
+        <v>0.72464906592558198</v>
       </c>
       <c r="C4" s="12">
-        <v>0.55977703982417903</v>
+        <v>0.62761682408291697</v>
       </c>
       <c r="D4" s="12">
-        <v>0.39944530634776798</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.66436600210141405</v>
+        <v>0.38313274027559702</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
       </c>
       <c r="F4" s="14">
         <v>0</v>
       </c>
       <c r="G4" s="15">
-        <f t="shared" ref="G4:G11" si="0">SUM(B4:E4)/3</f>
-        <v>0.79287936412564131</v>
+        <f>SUM(B4:D4)/3</f>
+        <v>0.57846621009469867</v>
       </c>
       <c r="H4" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="12">
-        <v>0.62167994979040897</v>
+        <v>0.55344223148576999</v>
       </c>
       <c r="L4" s="12">
-        <v>0.443242653899308</v>
+        <v>0.514757671491195</v>
       </c>
       <c r="M4" s="12">
-        <v>0.31316880217411303</v>
-      </c>
-      <c r="N4" s="12">
-        <v>0.474615614183509</v>
+        <v>0.30115122972265801</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0</v>
       </c>
       <c r="O4" s="14">
         <v>0</v>
       </c>
       <c r="P4" s="15">
-        <f t="shared" ref="P4:P11" si="1">SUM(K4:N4)/3</f>
-        <v>0.6175690066824463</v>
+        <f>SUM(K4:M4)/3</f>
+        <v>0.456450377566541</v>
       </c>
       <c r="Q4" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="12">
-        <v>0.65080741927236196</v>
+        <v>0.49982578011343398</v>
       </c>
       <c r="C5" s="12">
-        <v>0.51973133284886297</v>
+        <v>0.435238278516282</v>
       </c>
       <c r="D5" s="12">
-        <v>0.36660114555434398</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.73129836462050102</v>
+        <v>0.30738522954091801</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
       </c>
       <c r="F5" s="14">
         <v>0</v>
       </c>
       <c r="G5" s="15">
-        <f t="shared" si="0"/>
-        <v>0.75614608743202327</v>
-      </c>
-      <c r="H5" s="27">
-        <v>7</v>
-      </c>
-      <c r="I5" s="18"/>
+        <f t="shared" ref="G5:G12" si="0">SUM(B5:D5)/3</f>
+        <v>0.41414976272354465</v>
+      </c>
+      <c r="H5" s="22">
+        <v>9</v>
+      </c>
+      <c r="I5" s="21"/>
       <c r="J5" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K5" s="12">
-        <v>0.53025837847817503</v>
+        <v>0.36036963581856901</v>
       </c>
       <c r="L5" s="12">
-        <v>0.35852590250772698</v>
+        <v>0.27573187971421498</v>
       </c>
       <c r="M5" s="12">
-        <v>0.297718380576314</v>
-      </c>
-      <c r="N5" s="12">
-        <v>0.55126435288598696</v>
+        <v>0.26347305389221498</v>
+      </c>
+      <c r="N5" s="14">
+        <v>0</v>
       </c>
       <c r="O5" s="14">
         <v>0</v>
       </c>
       <c r="P5" s="15">
-        <f t="shared" si="1"/>
-        <v>0.57925567148273427</v>
-      </c>
-      <c r="Q5" s="18">
-        <v>5</v>
+        <f>SUM(K5:M5)/3</f>
+        <v>0.29985818980833301</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="12">
-        <v>0.64196914194553301</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.54521269983342002</v>
       </c>
       <c r="C6" s="12">
-        <v>0.49105339690544397</v>
+        <v>0.46271629357205901</v>
       </c>
       <c r="D6" s="12">
-        <v>0.35571091782145797</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0.67817782769027601</v>
+        <v>0.29395028451632199</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
       </c>
       <c r="F6" s="14">
         <v>0</v>
       </c>
       <c r="G6" s="15">
         <f t="shared" si="0"/>
-        <v>0.72230376145423703</v>
-      </c>
-      <c r="H6" s="27">
+        <v>0.43395975930726699</v>
+      </c>
+      <c r="H6" s="22">
         <v>8</v>
       </c>
-      <c r="I6" s="18"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K6" s="12">
-        <v>0.50705534553323806</v>
+        <v>0.36238976085697899</v>
       </c>
       <c r="L6" s="12">
-        <v>0.33969105469042898</v>
+        <v>0.30778205122284502</v>
       </c>
       <c r="M6" s="12">
-        <v>0.28701985404348201</v>
-      </c>
-      <c r="N6" s="12">
-        <v>0.45826861997513302</v>
+        <v>0.25756214435459701</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0</v>
       </c>
       <c r="O6" s="14">
         <v>0</v>
       </c>
       <c r="P6" s="15">
-        <f t="shared" si="1"/>
-        <v>0.53067829141409406</v>
-      </c>
-      <c r="Q6" s="28">
+        <f t="shared" ref="P6:P12" si="1">SUM(K6:M6)/3</f>
+        <v>0.30924465214480701</v>
+      </c>
+      <c r="Q6" s="23">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B7" s="12">
-        <v>0.65317216938102995</v>
+        <v>0.60989830995247396</v>
       </c>
       <c r="C7" s="12">
-        <v>0.60136759084712399</v>
+        <v>0.54562314346339302</v>
       </c>
       <c r="D7" s="12">
-        <v>0.37706885415242802</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0.65810151747081402</v>
+        <v>0.34161670987610299</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
       </c>
       <c r="F7" s="14">
         <v>0</v>
       </c>
       <c r="G7" s="15">
         <f t="shared" si="0"/>
-        <v>0.76323671061713194</v>
+        <v>0.49904605443065658</v>
       </c>
       <c r="H7" s="18">
         <v>6</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K7" s="12">
-        <v>0.51965108827678597</v>
+        <v>0.44434331003435001</v>
       </c>
       <c r="L7" s="12">
-        <v>0.47219641476811702</v>
+        <v>0.41671048505651798</v>
       </c>
       <c r="M7" s="12">
-        <v>0.28916158333874398</v>
-      </c>
-      <c r="N7" s="12">
-        <v>0.42892705452089502</v>
+        <v>0.27364470501976701</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0</v>
       </c>
       <c r="O7" s="14">
         <v>0</v>
       </c>
       <c r="P7" s="15">
         <f t="shared" si="1"/>
-        <v>0.56997871363484731</v>
-      </c>
-      <c r="Q7" s="18">
+        <v>0.37823283337021163</v>
+      </c>
+      <c r="Q7" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="13">
-        <v>0.73654166430988099</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.68420650844722397</v>
       </c>
       <c r="C8" s="12">
-        <v>0.60485185980141398</v>
+        <v>0.56550541656924602</v>
       </c>
       <c r="D8" s="12">
-        <v>0.37179191632630298</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0.69647259112469295</v>
+        <v>0.35484567901234498</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
       </c>
       <c r="F8" s="14">
         <v>0</v>
       </c>
       <c r="G8" s="15">
         <f t="shared" si="0"/>
-        <v>0.80321934385409699</v>
-      </c>
-      <c r="H8" s="24">
-        <v>2</v>
+        <v>0.5348525346762717</v>
+      </c>
+      <c r="H8" s="18">
+        <v>4</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K8" s="12">
-        <v>0.59181280390205104</v>
+        <v>0.53074301755562703</v>
       </c>
       <c r="L8" s="12">
-        <v>0.463391936392056</v>
+        <v>0.35783129400150598</v>
       </c>
       <c r="M8" s="12">
-        <v>0.30798990657008801</v>
-      </c>
-      <c r="N8" s="12">
-        <v>0.54775744859742603</v>
+        <v>0.27904320987654302</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0</v>
       </c>
       <c r="O8" s="14">
         <v>0</v>
       </c>
       <c r="P8" s="15">
         <f t="shared" si="1"/>
-        <v>0.63698403182054042</v>
-      </c>
-      <c r="Q8" s="25">
-        <v>2</v>
+        <v>0.38920584047789197</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
+      <c r="A9" s="29" t="s">
+        <v>10</v>
       </c>
       <c r="B9" s="12">
-        <v>0.62818271414788696</v>
+        <v>0.74671364674347596</v>
       </c>
       <c r="C9" s="12">
-        <v>0.64232237922664004</v>
+        <v>0.54378525220363005</v>
       </c>
       <c r="D9" s="12">
-        <v>0.41874624171707397</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0.68315790035046897</v>
+        <v>0.354564127059947</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
       </c>
       <c r="F9" s="14">
         <v>0</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" si="0"/>
-        <v>0.79080307848068998</v>
-      </c>
-      <c r="H9" s="18">
-        <v>4</v>
+        <v>0.548354342002351</v>
+      </c>
+      <c r="H9" s="24">
+        <v>3</v>
       </c>
       <c r="I9" s="18"/>
-      <c r="J9" s="5" t="s">
-        <v>7</v>
+      <c r="J9" s="29" t="s">
+        <v>10</v>
       </c>
       <c r="K9" s="12">
-        <v>0.47772407390391303</v>
+        <v>0.62230958748806997</v>
       </c>
       <c r="L9" s="12">
-        <v>0.486333377784684</v>
+        <v>0.412433773585139</v>
       </c>
       <c r="M9" s="12">
-        <v>0.34470864181045702</v>
-      </c>
-      <c r="N9" s="12">
-        <v>0.51632181088843798</v>
+        <v>0.29028049783722099</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
       </c>
       <c r="O9" s="14">
         <v>0</v>
       </c>
       <c r="P9" s="15">
         <f t="shared" si="1"/>
-        <v>0.60836263479583075</v>
-      </c>
-      <c r="Q9" s="19">
-        <v>4</v>
+        <v>0.44167461963680993</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10" s="12">
-        <v>0.62409744808888901</v>
+        <v>0.562451477827699</v>
       </c>
       <c r="C10" s="12">
-        <v>0.6002689053486</v>
+        <v>0.43019750239054999</v>
       </c>
       <c r="D10" s="12">
-        <v>0.40904321581716802</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0.68359994821887404</v>
+        <v>0.39773357460765502</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
       </c>
       <c r="F10" s="14">
         <v>0</v>
       </c>
       <c r="G10" s="15">
         <f t="shared" si="0"/>
-        <v>0.7723365058245103</v>
+        <v>0.46346085160863471</v>
       </c>
       <c r="H10" s="18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K10" s="12">
-        <v>0.46445231211645199</v>
+        <v>0.42207427956232701</v>
       </c>
       <c r="L10" s="12">
-        <v>0.424270018801994</v>
+        <v>0.32910499680730398</v>
       </c>
       <c r="M10" s="12">
-        <v>0.34174782438893397</v>
-      </c>
-      <c r="N10" s="12">
-        <v>0.46415364601298098</v>
+        <v>0.33907803775515599</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0</v>
       </c>
       <c r="O10" s="14">
         <v>0</v>
       </c>
       <c r="P10" s="15">
         <f t="shared" si="1"/>
-        <v>0.56487460044012028</v>
-      </c>
-      <c r="Q10" s="28">
+        <v>0.36341910470826227</v>
+      </c>
+      <c r="Q10" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B11" s="12">
-        <v>0.72880559050768201</v>
+        <v>0.68273115081357105</v>
       </c>
       <c r="C11" s="12">
-        <v>0.60573861196447698</v>
+        <v>0.52807935012796703</v>
       </c>
       <c r="D11" s="12">
-        <v>0.37811640799522001</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0.72472186178285403</v>
+        <v>0.36431921423268798</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
       </c>
       <c r="F11" s="14">
         <v>0</v>
       </c>
       <c r="G11" s="15">
         <f t="shared" si="0"/>
-        <v>0.81246082408341103</v>
-      </c>
-      <c r="H11" s="24">
-        <v>1</v>
+        <v>0.52504323839140865</v>
+      </c>
+      <c r="H11" s="18">
+        <v>5</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K11" s="12">
-        <v>0.56898239361653202</v>
+        <v>0.56385667281505203</v>
       </c>
       <c r="L11" s="12">
-        <v>0.50650789510729</v>
+        <v>0.34243817541662802</v>
       </c>
       <c r="M11" s="12">
-        <v>0.29976231798817998</v>
-      </c>
-      <c r="N11" s="12">
-        <v>0.53939786492863595</v>
+        <v>0.29144999634247798</v>
+      </c>
+      <c r="N11" s="14">
+        <v>0</v>
       </c>
       <c r="O11" s="14">
         <v>0</v>
       </c>
       <c r="P11" s="15">
         <f t="shared" si="1"/>
-        <v>0.63821682388021272</v>
-      </c>
-      <c r="Q11" s="25">
+        <v>0.39924828152471936</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0.67405256072727804</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.58713510560976601</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.48380330142378503</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" si="0"/>
+        <v>0.58166365592027636</v>
+      </c>
+      <c r="H12" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7" t="str">
-        <f>INDEX($A4:$A11, MATCH(MAX(B4:B11), B4:B11, 0))</f>
+      <c r="I12" s="18"/>
+      <c r="J12" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0.56667539980744397</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0.50320637501880705</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0.38356826991367299</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0</v>
+      </c>
+      <c r="O12" s="14">
+        <v>0</v>
+      </c>
+      <c r="P12" s="15">
+        <f t="shared" si="1"/>
+        <v>0.4844833482466413</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="str">
+        <f>INDEX($A4:$A12, MATCH(MAX(B4:B12), B4:B12, 0))</f>
+        <v>v2-html</v>
+      </c>
+      <c r="C13" s="7" t="str">
+        <f>INDEX($A4:$A12, MATCH(MAX(C4:C12), C4:C12, 0))</f>
         <v>v0-unstruct</v>
       </c>
-      <c r="C12" s="7" t="str">
-        <f>INDEX($A4:$A11, MATCH(MAX(C4:C11), C4:C11, 0))</f>
-        <v>v2-json</v>
-      </c>
-      <c r="D12" s="7" t="str">
-        <f>INDEX($A4:$A11, MATCH(MAX(D4:D11), D4:D11, 0))</f>
-        <v>v2-json</v>
-      </c>
-      <c r="E12" s="7" t="str">
-        <f>INDEX($A4:$A11, MATCH(MAX(E4:E11), E4:E11, 0))</f>
-        <v>v2-custom1</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="16" t="str">
-        <f>INDEX($A4:$A11, MATCH(MAX(G4:G11), G4:G11, 0))</f>
+      <c r="D13" s="7" t="str">
+        <f>INDEX($A4:$A12, MATCH(MAX(D4:D12), D4:D12, 0))</f>
         <v>v2-toml</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="7" t="str">
-        <f>INDEX($J4:$J11, MATCH(MAX(K4:K11), K4:K11, 0))</f>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="16" t="str">
+        <f>INDEX($A4:$A12, MATCH(MAX(G4:G12), G4:G12, 0))</f>
+        <v>v2-toml</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="7" t="str">
+        <f>INDEX($J4:$J12, MATCH(MAX(K4:K12), K4:K12, 0))</f>
+        <v>v2-html</v>
+      </c>
+      <c r="L13" s="7" t="str">
+        <f>INDEX($J4:$J12, MATCH(MAX(L4:L12), L4:L12, 0))</f>
         <v>v0-unstruct</v>
       </c>
-      <c r="L12" s="7" t="str">
-        <f t="shared" ref="L12:N12" si="2">INDEX($J4:$J11, MATCH(MAX(L4:L11), L4:L11, 0))</f>
+      <c r="M13" s="7" t="str">
+        <f>INDEX($J4:$J12, MATCH(MAX(M4:M12), M4:M12, 0))</f>
         <v>v2-toml</v>
       </c>
-      <c r="M12" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>v2-json</v>
-      </c>
-      <c r="N12" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>v2-custom1</v>
-      </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="16" t="str">
-        <f>INDEX($J4:$J11, MATCH(MAX(P4:P11), P4:P11, 0))</f>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="16" t="str">
+        <f>INDEX($A4:$A12, MATCH(MAX(P4:P12), P4:P12, 0))</f>
         <v>v2-toml</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+    <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>26</v>
+      <c r="J17" s="10"/>
+      <c r="Q17" s="20"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:P11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:O12">
     <sortCondition ref="A4"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="K2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E11">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:N11">
+  <conditionalFormatting sqref="B4:D12">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2780,549 +4335,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574148B7-F8D1-42F1-8AFA-D3237162CD62}">
-  <dimension ref="A2:Q12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="26"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="12">
-        <v>0.71184085570050404</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0.58106454332746105</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0.365576259489303</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0</v>
-      </c>
-      <c r="F4" s="14">
-        <v>0</v>
-      </c>
-      <c r="G4" s="15">
-        <f t="shared" ref="G4:G11" si="0">SUM(B4:D4)/3</f>
-        <v>0.55282721950575608</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="12">
-        <v>0.59044334482930905</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0.438522579025027</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0.28356502021098201</v>
-      </c>
-      <c r="N4" s="14">
-        <v>0</v>
-      </c>
-      <c r="O4" s="14">
-        <v>0</v>
-      </c>
-      <c r="P4" s="15">
-        <f t="shared" ref="P4:P11" si="1">SUM(K4:M4)/3</f>
-        <v>0.43751031468843937</v>
-      </c>
-      <c r="Q4" s="19"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="12">
-        <v>0.58436080203665997</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0.52553402734770505</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0.33132473765366999</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <f t="shared" si="0"/>
-        <v>0.48040652234601167</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0.42078426449511402</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0.36541921023916901</v>
-      </c>
-      <c r="M5" s="12">
-        <v>0.27021104877602897</v>
-      </c>
-      <c r="N5" s="14">
-        <v>0</v>
-      </c>
-      <c r="O5" s="14">
-        <v>0</v>
-      </c>
-      <c r="P5" s="15">
-        <f t="shared" si="1"/>
-        <v>0.35213817450343732</v>
-      </c>
-      <c r="Q5" s="18"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="12">
-        <v>0.49491571230701598</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0.64496769801133902</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0.37470477403603702</v>
-      </c>
-      <c r="E6" s="14">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
-        <f t="shared" si="0"/>
-        <v>0.50486272811813071</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="12">
-        <v>0.38314246140333003</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0.48340031573595899</v>
-      </c>
-      <c r="M6" s="12">
-        <v>0.29055542286972902</v>
-      </c>
-      <c r="N6" s="14">
-        <v>0</v>
-      </c>
-      <c r="O6" s="14">
-        <v>0</v>
-      </c>
-      <c r="P6" s="15">
-        <f t="shared" si="1"/>
-        <v>0.38569940000300607</v>
-      </c>
-      <c r="Q6" s="19"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="12">
-        <v>0.55088580925045705</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0.62871569490594803</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0.37681316204642701</v>
-      </c>
-      <c r="E7" s="14">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15">
-        <f t="shared" si="0"/>
-        <v>0.51880488873427733</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="12">
-        <v>0.40678084034624301</v>
-      </c>
-      <c r="L7" s="12">
-        <v>0.47328190527581299</v>
-      </c>
-      <c r="M7" s="12">
-        <v>0.308226279017354</v>
-      </c>
-      <c r="N7" s="14">
-        <v>0</v>
-      </c>
-      <c r="O7" s="14">
-        <v>0</v>
-      </c>
-      <c r="P7" s="15">
-        <f t="shared" si="1"/>
-        <v>0.39609634154647</v>
-      </c>
-      <c r="Q7" s="18"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="13">
-        <v>0.67849729740378995</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0.56854145971790304</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0.33299817228037698</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <f t="shared" si="0"/>
-        <v>0.52667897646735662</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="12">
-        <v>0.53246788336267403</v>
-      </c>
-      <c r="L8" s="12">
-        <v>0.44566547391457301</v>
-      </c>
-      <c r="M8" s="12">
-        <v>0.27594103823969202</v>
-      </c>
-      <c r="N8" s="14">
-        <v>0</v>
-      </c>
-      <c r="O8" s="14">
-        <v>0</v>
-      </c>
-      <c r="P8" s="15">
-        <f t="shared" si="1"/>
-        <v>0.41802479850564639</v>
-      </c>
-      <c r="Q8" s="19"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="12">
-        <v>0.71868769361578499</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0.64573782315162898</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0.373443190545663</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0</v>
-      </c>
-      <c r="F9" s="14">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15">
-        <f t="shared" si="0"/>
-        <v>0.57928956910435903</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="12">
-        <v>0.604064561996972</v>
-      </c>
-      <c r="L9" s="12">
-        <v>0.45375492560340802</v>
-      </c>
-      <c r="M9" s="12">
-        <v>0.30554915899186702</v>
-      </c>
-      <c r="N9" s="14">
-        <v>0</v>
-      </c>
-      <c r="O9" s="14">
-        <v>0</v>
-      </c>
-      <c r="P9" s="15">
-        <f t="shared" si="1"/>
-        <v>0.454456215530749</v>
-      </c>
-      <c r="Q9" s="19"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="12">
-        <v>0.71591020037601505</v>
-      </c>
-      <c r="C10" s="12">
-        <v>0.530437187731985</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0.33547116736990101</v>
-      </c>
-      <c r="E10" s="14">
-        <v>0</v>
-      </c>
-      <c r="F10" s="14">
-        <v>0</v>
-      </c>
-      <c r="G10" s="15">
-        <f t="shared" si="0"/>
-        <v>0.52727285182596706</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="12">
-        <v>0.61808538561168902</v>
-      </c>
-      <c r="L10" s="12">
-        <v>0.33456540633419202</v>
-      </c>
-      <c r="M10" s="12">
-        <v>0.27881856540084299</v>
-      </c>
-      <c r="N10" s="14">
-        <v>0</v>
-      </c>
-      <c r="O10" s="14">
-        <v>0</v>
-      </c>
-      <c r="P10" s="15">
-        <f t="shared" si="1"/>
-        <v>0.41048978578224138</v>
-      </c>
-      <c r="Q10" s="19"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="12">
-        <v>0.71585822378924602</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0.58135066673039204</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0.41214694717879402</v>
-      </c>
-      <c r="E11" s="14">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="15">
-        <f t="shared" si="0"/>
-        <v>0.56978527923281064</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="12">
-        <v>0.562683777151475</v>
-      </c>
-      <c r="L11" s="12">
-        <v>0.45872962768245401</v>
-      </c>
-      <c r="M11" s="12">
-        <v>0.34098951296403501</v>
-      </c>
-      <c r="N11" s="14">
-        <v>0</v>
-      </c>
-      <c r="O11" s="14">
-        <v>0</v>
-      </c>
-      <c r="P11" s="15">
-        <f t="shared" si="1"/>
-        <v>0.45413430593265464</v>
-      </c>
-      <c r="Q11" s="19"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7" t="str">
-        <f>INDEX($A4:$A11, MATCH(MAX(B4:B11), B4:B11, 0))</f>
-        <v>v2-json</v>
-      </c>
-      <c r="C12" s="7" t="str">
-        <f>INDEX($A4:$A11, MATCH(MAX(C4:C11), C4:C11, 0))</f>
-        <v>v2-json</v>
-      </c>
-      <c r="D12" s="7" t="str">
-        <f>INDEX($A4:$A11, MATCH(MAX(D4:D11), D4:D11, 0))</f>
-        <v>v2-toml</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="16" t="str">
-        <f>INDEX($A4:$A11, MATCH(MAX(G4:G11), G4:G11, 0))</f>
-        <v>v2-json</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="7" t="str">
-        <f>INDEX($A4:$A11, MATCH(MAX(K4:K11), K4:K11, 0))</f>
-        <v>v2-md</v>
-      </c>
-      <c r="L12" s="7" t="str">
-        <f>INDEX($A4:$A11, MATCH(MAX(L4:L11), L4:L11, 0))</f>
-        <v>v2-custom2</v>
-      </c>
-      <c r="M12" s="7" t="str">
-        <f>INDEX($A4:$A11, MATCH(MAX(M4:M11), M4:M11, 0))</f>
-        <v>v2-toml</v>
-      </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="16" t="str">
-        <f>INDEX($A4:$A11, MATCH(MAX(P4:P11), P4:P11, 0))</f>
-        <v>v2-json</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:P11">
-    <sortCondition ref="A4:A11"/>
-  </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="L2:P2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B4:D11">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:M11">
+  <conditionalFormatting sqref="K4:M12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3335,453 +4348,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7235E51-046D-463A-ABA3-9E15B2323142}">
-  <dimension ref="A2:P10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="12">
-        <v>0.75377282339842799</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0.60046087843690599</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0.34196078431372501</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0</v>
-      </c>
-      <c r="F4" s="14">
-        <v>0</v>
-      </c>
-      <c r="G4" s="15">
-        <f>SUM(B4:D4)/3</f>
-        <v>0.56539816204968629</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="12">
-        <v>0.605902527135872</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0.46778079480805002</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0.29376906318082702</v>
-      </c>
-      <c r="N4" s="14">
-        <v>0</v>
-      </c>
-      <c r="O4" s="14">
-        <v>0</v>
-      </c>
-      <c r="P4" s="15">
-        <f>SUM(K4:M4)/3</f>
-        <v>0.45581746170824972</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="13">
-        <v>0.72492881066011305</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0.58292660800145102</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0.33761541930736499</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <f>SUM(B5:D5)/3</f>
-        <v>0.54849027932297634</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0.60114224620308099</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0.434742508089146</v>
-      </c>
-      <c r="M5" s="12">
-        <v>0.27178333214650202</v>
-      </c>
-      <c r="N5" s="14">
-        <v>0</v>
-      </c>
-      <c r="O5" s="14">
-        <v>0</v>
-      </c>
-      <c r="P5" s="15">
-        <f>SUM(K5:M5)/3</f>
-        <v>0.43588936214624296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="12">
-        <v>0.64924178004535105</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0.57339865215269203</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0.395619571835506</v>
-      </c>
-      <c r="E6" s="14">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
-        <f>SUM(B6:D6)/3</f>
-        <v>0.5394200013445164</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="12">
-        <v>0.47625425170067998</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0.447052384387089</v>
-      </c>
-      <c r="M6" s="12">
-        <v>0.31981352811131902</v>
-      </c>
-      <c r="N6" s="14">
-        <v>0</v>
-      </c>
-      <c r="O6" s="14">
-        <v>0</v>
-      </c>
-      <c r="P6" s="15">
-        <f>SUM(K6:M6)/3</f>
-        <v>0.41437338806636265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="12">
-        <v>0.68456883110855105</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0.62951229572243605</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0.35878353634264698</v>
-      </c>
-      <c r="E7" s="14">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15">
-        <f>SUM(B7:D7)/3</f>
-        <v>0.55762155439121142</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="12">
-        <v>0.54953324233070799</v>
-      </c>
-      <c r="L7" s="12">
-        <v>0.50293360386740704</v>
-      </c>
-      <c r="M7" s="12">
-        <v>0.29447336995462098</v>
-      </c>
-      <c r="N7" s="14">
-        <v>0</v>
-      </c>
-      <c r="O7" s="14">
-        <v>0</v>
-      </c>
-      <c r="P7" s="15">
-        <f>SUM(K7:M7)/3</f>
-        <v>0.448980072050912</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12">
-        <v>0.662518715150064</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0.55107945307726103</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0.36631084399963099</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <f>SUM(B8:D8)/3</f>
-        <v>0.52663633740898541</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="12">
-        <v>0.53002280696159099</v>
-      </c>
-      <c r="L8" s="12">
-        <v>0.39909298153918199</v>
-      </c>
-      <c r="M8" s="12">
-        <v>0.30682824675959602</v>
-      </c>
-      <c r="N8" s="14">
-        <v>0</v>
-      </c>
-      <c r="O8" s="14">
-        <v>0</v>
-      </c>
-      <c r="P8" s="15">
-        <f>SUM(K8:M8)/3</f>
-        <v>0.41198134508678969</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="12">
-        <v>0.71397236355499005</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0.61598215522187205</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0.41762064720001602</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0</v>
-      </c>
-      <c r="F9" s="14">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15">
-        <f>SUM(B9:D9)/3</f>
-        <v>0.58252505532562615</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="12">
-        <v>0.57506812681082597</v>
-      </c>
-      <c r="L9" s="12">
-        <v>0.47229113498328201</v>
-      </c>
-      <c r="M9" s="12">
-        <v>0.34775206540488601</v>
-      </c>
-      <c r="N9" s="14">
-        <v>0</v>
-      </c>
-      <c r="O9" s="14">
-        <v>0</v>
-      </c>
-      <c r="P9" s="15">
-        <f>SUM(K9:M9)/3</f>
-        <v>0.46503710906633128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7" t="str">
-        <f>INDEX($A4:$A9, MATCH(MAX(B4:B9), B4:B9, 0))</f>
-        <v>v0-unstruct</v>
-      </c>
-      <c r="C10" s="7" t="str">
-        <f>INDEX($A4:$A9, MATCH(MAX(C4:C9), C4:C9, 0))</f>
-        <v>v2-html</v>
-      </c>
-      <c r="D10" s="7" t="str">
-        <f>INDEX($A4:$A9, MATCH(MAX(D4:D9), D4:D9, 0))</f>
-        <v>v2-md</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="16" t="str">
-        <f>INDEX($A4:$A9, MATCH(MAX(G4:G9), G4:G9, 0))</f>
-        <v>v2-md</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="7" t="str">
-        <f>INDEX($A4:$A9, MATCH(MAX(K4:K9), K4:K9, 0))</f>
-        <v>v0-unstruct</v>
-      </c>
-      <c r="L10" s="7" t="str">
-        <f>INDEX($A4:$A9, MATCH(MAX(L4:L9), L4:L9, 0))</f>
-        <v>v2-html</v>
-      </c>
-      <c r="M10" s="7" t="str">
-        <f>INDEX($A4:$A9, MATCH(MAX(M4:M9), M4:M9, 0))</f>
-        <v>v2-md</v>
-      </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="16" t="str">
-        <f>INDEX($J4:$J9, MATCH(MAX(P4:P9), P4:P9, 0))</f>
-        <v>v2-md</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:P9">
-    <sortCondition ref="A4:A9"/>
-  </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="L2:P2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B4:D9">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:M9">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>